--- a/results/initial_descriptives/combined/sumtable_countymeans.xlsx
+++ b/results/initial_descriptives/combined/sumtable_countymeans.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>year</t>
   </si>
@@ -61,6 +61,18 @@
   </si>
   <si>
     <t>lccL8_pcnt</t>
+  </si>
+  <si>
+    <t>lccL12_pcnt</t>
+  </si>
+  <si>
+    <t>lccL34_pcnt</t>
+  </si>
+  <si>
+    <t>lccL56_pcnt</t>
+  </si>
+  <si>
+    <t>lccL78_pcnt</t>
   </si>
   <si>
     <t>crop_nr</t>
@@ -115,7 +127,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H23"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -539,62 +551,166 @@
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>57.224380493164063</v>
+        <v>27.279594421386719</v>
       </c>
       <c r="C17" s="1">
-        <v>94.518028259277344</v>
+        <v>27.233213424682617</v>
       </c>
       <c r="D17" s="1">
-        <v>124.73121643066406</v>
+        <v>27.179462432861328</v>
       </c>
       <c r="E17" s="1">
-        <v>111.63810729980469</v>
+        <v>27.143133163452148</v>
       </c>
       <c r="F17" s="1">
-        <v>66.280105590820313</v>
+        <v>27.043693542480469</v>
       </c>
       <c r="G17" s="1">
-        <v>75.465164184570313</v>
+        <v>27.007862091064453</v>
       </c>
       <c r="H17" s="1">
-        <v>107.39522552490234</v>
+        <v>26.996816635131836</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+      <c r="B18" s="1">
+        <v>36.028423309326172</v>
+      </c>
+      <c r="C18" s="1">
+        <v>36.006706237792969</v>
+      </c>
+      <c r="D18" s="1">
+        <v>35.992000579833984</v>
+      </c>
+      <c r="E18" s="1">
+        <v>35.899997711181641</v>
+      </c>
       <c r="F18" s="1">
-        <v>20.544464111328125</v>
+        <v>35.877849578857422</v>
       </c>
       <c r="G18" s="1">
-        <v>19.215654373168945</v>
+        <v>35.835128784179688</v>
       </c>
       <c r="H18" s="1">
-        <v>16.132402420043945</v>
+        <v>35.84136962890625</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+      <c r="B19" s="1">
+        <v>18.600509643554688</v>
+      </c>
+      <c r="C19" s="1">
+        <v>18.624383926391602</v>
+      </c>
+      <c r="D19" s="1">
+        <v>18.643213272094727</v>
+      </c>
       <c r="E19" s="1">
+        <v>18.670459747314453</v>
+      </c>
+      <c r="F19" s="1">
+        <v>18.726682662963867</v>
+      </c>
+      <c r="G19" s="1">
+        <v>18.755411148071289</v>
+      </c>
+      <c r="H19" s="1">
+        <v>18.766611099243164</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
+        <v>18.091474533081055</v>
+      </c>
+      <c r="C20" s="1">
+        <v>18.135696411132813</v>
+      </c>
+      <c r="D20" s="1">
+        <v>18.185325622558594</v>
+      </c>
+      <c r="E20" s="1">
+        <v>18.286409378051758</v>
+      </c>
+      <c r="F20" s="1">
+        <v>18.351774215698242</v>
+      </c>
+      <c r="G20" s="1">
+        <v>18.40159797668457</v>
+      </c>
+      <c r="H20" s="1">
+        <v>18.39520263671875</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1">
+        <v>57.224380493164063</v>
+      </c>
+      <c r="C21" s="1">
+        <v>94.518028259277344</v>
+      </c>
+      <c r="D21" s="1">
+        <v>124.73121643066406</v>
+      </c>
+      <c r="E21" s="1">
+        <v>111.63810729980469</v>
+      </c>
+      <c r="F21" s="1">
+        <v>66.280105590820313</v>
+      </c>
+      <c r="G21" s="1">
+        <v>75.465164184570313</v>
+      </c>
+      <c r="H21" s="1">
+        <v>107.39522552490234</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1">
+        <v>20.544464111328125</v>
+      </c>
+      <c r="G22" s="1">
+        <v>19.215654373168945</v>
+      </c>
+      <c r="H22" s="1">
+        <v>16.132402420043945</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1">
         <v>22257.21875</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F23" s="1">
         <v>28130.1640625</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G23" s="1">
         <v>41444.46484375</v>
       </c>
-      <c r="H19" s="1">
+      <c r="H23" s="1">
         <v>43307.26953125</v>
       </c>
     </row>

--- a/results/initial_descriptives/combined/sumtable_countymeans.xlsx
+++ b/results/initial_descriptives/combined/sumtable_countymeans.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>year</t>
   </si>
@@ -25,9 +25,6 @@
   </si>
   <si>
     <t>Forestland_pcnt</t>
-  </si>
-  <si>
-    <t>Otherland_pcnt</t>
   </si>
   <si>
     <t>Pastureland_pcnt</t>
@@ -127,7 +124,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H22"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -161,25 +158,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>26.069324493408203</v>
+        <v>28.125761032104492</v>
       </c>
       <c r="C2" s="1">
-        <v>24.681756973266602</v>
+        <v>26.64579963684082</v>
       </c>
       <c r="D2" s="1">
-        <v>23.29124641418457</v>
+        <v>25.165998458862305</v>
       </c>
       <c r="E2" s="1">
-        <v>22.687786102294922</v>
+        <v>24.52128791809082</v>
       </c>
       <c r="F2" s="1">
-        <v>21.768405914306641</v>
+        <v>23.52459716796875</v>
       </c>
       <c r="G2" s="1">
-        <v>21.490802764892578</v>
+        <v>23.244480133056641</v>
       </c>
       <c r="H2" s="1">
-        <v>22.167470932006836</v>
+        <v>23.984085083007813</v>
       </c>
     </row>
     <row r="3">
@@ -190,22 +187,22 @@
         <v>0</v>
       </c>
       <c r="C3" s="1">
-        <v>0.81215900182723999</v>
+        <v>0.85870075225830078</v>
       </c>
       <c r="D3" s="1">
-        <v>2.0578970909118652</v>
+        <v>2.1823241710662842</v>
       </c>
       <c r="E3" s="1">
-        <v>1.957358717918396</v>
+        <v>2.0761411190032959</v>
       </c>
       <c r="F3" s="1">
-        <v>1.7745411396026611</v>
+        <v>1.8803716897964478</v>
       </c>
       <c r="G3" s="1">
-        <v>1.8241651058197021</v>
+        <v>1.9339430332183838</v>
       </c>
       <c r="H3" s="1">
-        <v>1.3229129314422607</v>
+        <v>1.4021095037460327</v>
       </c>
     </row>
     <row r="4">
@@ -213,25 +210,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>31.898458480834961</v>
+        <v>34.908100128173828</v>
       </c>
       <c r="C4" s="1">
-        <v>32.086822509765625</v>
+        <v>35.098213195800781</v>
       </c>
       <c r="D4" s="1">
-        <v>32.114433288574219</v>
+        <v>35.120071411132813</v>
       </c>
       <c r="E4" s="1">
-        <v>32.144092559814453</v>
+        <v>35.134029388427734</v>
       </c>
       <c r="F4" s="1">
-        <v>32.221305847167969</v>
+        <v>35.237506866455078</v>
       </c>
       <c r="G4" s="1">
-        <v>32.191005706787109</v>
+        <v>35.257175445556641</v>
       </c>
       <c r="H4" s="1">
-        <v>32.247512817382813</v>
+        <v>35.342998504638672</v>
       </c>
     </row>
     <row r="5">
@@ -239,25 +236,25 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>7.7726941108703613</v>
+        <v>16.106454849243164</v>
       </c>
       <c r="C5" s="1">
-        <v>7.8351383209228516</v>
+        <v>16.148845672607422</v>
       </c>
       <c r="D5" s="1">
-        <v>7.8688535690307617</v>
+        <v>15.718827247619629</v>
       </c>
       <c r="E5" s="1">
-        <v>7.917417049407959</v>
+        <v>15.413778305053711</v>
       </c>
       <c r="F5" s="1">
-        <v>7.9882678985595703</v>
+        <v>15.694674491882324</v>
       </c>
       <c r="G5" s="1">
-        <v>8.1410427093505859</v>
+        <v>15.392695426940918</v>
       </c>
       <c r="H5" s="1">
-        <v>8.2140398025512695</v>
+        <v>14.879504203796387</v>
       </c>
     </row>
     <row r="6">
@@ -265,25 +262,25 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>14.932830810546875</v>
+        <v>15.54348087310791</v>
       </c>
       <c r="C6" s="1">
-        <v>14.95384693145752</v>
+        <v>15.309108734130859</v>
       </c>
       <c r="D6" s="1">
-        <v>14.561542510986328</v>
+        <v>15.159688949584961</v>
       </c>
       <c r="E6" s="1">
-        <v>14.270784378051758</v>
+        <v>15.129592895507813</v>
       </c>
       <c r="F6" s="1">
-        <v>14.511384963989258</v>
+        <v>15.120001792907715</v>
       </c>
       <c r="G6" s="1">
-        <v>14.202831268310547</v>
+        <v>15.093488693237305</v>
       </c>
       <c r="H6" s="1">
-        <v>13.722427368164063</v>
+        <v>15.042671203613281</v>
       </c>
     </row>
     <row r="7">
@@ -291,25 +288,25 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>14.69157886505127</v>
+        <v>5.3162059783935547</v>
       </c>
       <c r="C7" s="1">
-        <v>14.460612297058105</v>
+        <v>5.9393305778503418</v>
       </c>
       <c r="D7" s="1">
-        <v>14.316226959228516</v>
+        <v>6.6530900001525879</v>
       </c>
       <c r="E7" s="1">
-        <v>14.280733108520508</v>
+        <v>7.7251725196838379</v>
       </c>
       <c r="F7" s="1">
-        <v>14.270383834838867</v>
+        <v>8.5428485870361328</v>
       </c>
       <c r="G7" s="1">
-        <v>14.23179817199707</v>
+        <v>9.0782184600830078</v>
       </c>
       <c r="H7" s="1">
-        <v>14.175910949707031</v>
+        <v>9.3486337661743164</v>
       </c>
     </row>
     <row r="8">
@@ -317,25 +314,25 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>4.6351132392883301</v>
+        <v>2.4747059345245361</v>
       </c>
       <c r="C8" s="1">
-        <v>5.1696624755859375</v>
+        <v>2.4741182327270508</v>
       </c>
       <c r="D8" s="1">
-        <v>5.7898006439208984</v>
+        <v>2.4662985801696777</v>
       </c>
       <c r="E8" s="1">
-        <v>6.7418298721313477</v>
+        <v>2.4644913673400879</v>
       </c>
       <c r="F8" s="1">
-        <v>7.4657073020935059</v>
+        <v>2.4521551132202148</v>
       </c>
       <c r="G8" s="1">
-        <v>7.9183530807495117</v>
+        <v>2.4536852836608887</v>
       </c>
       <c r="H8" s="1">
-        <v>8.1497259140014648</v>
+        <v>2.4524087905883789</v>
       </c>
     </row>
     <row r="9">
@@ -343,25 +340,25 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>2.4747059345245361</v>
+        <v>24.804887771606445</v>
       </c>
       <c r="C9" s="1">
-        <v>2.4741182327270508</v>
+        <v>24.759096145629883</v>
       </c>
       <c r="D9" s="1">
-        <v>2.4662985801696777</v>
+        <v>24.713163375854492</v>
       </c>
       <c r="E9" s="1">
-        <v>2.4644913673400879</v>
+        <v>24.678642272949219</v>
       </c>
       <c r="F9" s="1">
-        <v>2.4521551132202148</v>
+        <v>24.591537475585938</v>
       </c>
       <c r="G9" s="1">
-        <v>2.4536852836608887</v>
+        <v>24.554176330566406</v>
       </c>
       <c r="H9" s="1">
-        <v>2.4524087905883789</v>
+        <v>24.544406890869141</v>
       </c>
     </row>
     <row r="10">
@@ -369,25 +366,25 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>24.804887771606445</v>
+        <v>21.870532989501953</v>
       </c>
       <c r="C10" s="1">
-        <v>24.759096145629883</v>
+        <v>21.861948013305664</v>
       </c>
       <c r="D10" s="1">
-        <v>24.713163375854492</v>
+        <v>21.850612640380859</v>
       </c>
       <c r="E10" s="1">
-        <v>24.678642272949219</v>
+        <v>21.800140380859375</v>
       </c>
       <c r="F10" s="1">
-        <v>24.591537475585938</v>
+        <v>21.778963088989258</v>
       </c>
       <c r="G10" s="1">
-        <v>24.554176330566406</v>
+        <v>21.80213737487793</v>
       </c>
       <c r="H10" s="1">
-        <v>24.544406890869141</v>
+        <v>21.810819625854492</v>
       </c>
     </row>
     <row r="11">
@@ -395,25 +392,25 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>21.870532989501953</v>
+        <v>14.157889366149902</v>
       </c>
       <c r="C11" s="1">
-        <v>21.861948013305664</v>
+        <v>14.144756317138672</v>
       </c>
       <c r="D11" s="1">
-        <v>21.850612640380859</v>
+        <v>14.141387939453125</v>
       </c>
       <c r="E11" s="1">
-        <v>21.800140380859375</v>
+        <v>14.099856376647949</v>
       </c>
       <c r="F11" s="1">
-        <v>21.778963088989258</v>
+        <v>14.09888744354248</v>
       </c>
       <c r="G11" s="1">
-        <v>21.80213737487793</v>
+        <v>14.032992362976074</v>
       </c>
       <c r="H11" s="1">
-        <v>21.810819625854492</v>
+        <v>14.030549049377441</v>
       </c>
     </row>
     <row r="12">
@@ -421,25 +418,25 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>14.157889366149902</v>
+        <v>2.8322567939758301</v>
       </c>
       <c r="C12" s="1">
-        <v>14.144756317138672</v>
+        <v>2.8388514518737793</v>
       </c>
       <c r="D12" s="1">
-        <v>14.141387939453125</v>
+        <v>2.8458425998687744</v>
       </c>
       <c r="E12" s="1">
-        <v>14.099856376647949</v>
+        <v>2.8625130653381348</v>
       </c>
       <c r="F12" s="1">
-        <v>14.09888744354248</v>
+        <v>2.8833553791046143</v>
       </c>
       <c r="G12" s="1">
-        <v>14.032992362976074</v>
+        <v>2.8945941925048828</v>
       </c>
       <c r="H12" s="1">
-        <v>14.030549049377441</v>
+        <v>2.8985235691070557</v>
       </c>
     </row>
     <row r="13">
@@ -447,25 +444,25 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>2.8322567939758301</v>
+        <v>15.768252372741699</v>
       </c>
       <c r="C13" s="1">
-        <v>2.8388514518737793</v>
+        <v>15.785531997680664</v>
       </c>
       <c r="D13" s="1">
-        <v>2.8458425998687744</v>
+        <v>15.797369956970215</v>
       </c>
       <c r="E13" s="1">
-        <v>2.8625130653381348</v>
+        <v>15.807947158813477</v>
       </c>
       <c r="F13" s="1">
-        <v>2.8833553791046143</v>
+        <v>15.843327522277832</v>
       </c>
       <c r="G13" s="1">
-        <v>2.8945941925048828</v>
+        <v>15.86081600189209</v>
       </c>
       <c r="H13" s="1">
-        <v>2.8985235691070557</v>
+        <v>15.868087768554688</v>
       </c>
     </row>
     <row r="14">
@@ -473,25 +470,25 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>15.768252372741699</v>
+        <v>16.465944290161133</v>
       </c>
       <c r="C14" s="1">
-        <v>15.785531997680664</v>
+        <v>16.4981689453125</v>
       </c>
       <c r="D14" s="1">
-        <v>15.797369956970215</v>
+        <v>16.533561706542969</v>
       </c>
       <c r="E14" s="1">
-        <v>15.807947158813477</v>
+        <v>16.621860504150391</v>
       </c>
       <c r="F14" s="1">
-        <v>15.843327522277832</v>
+        <v>16.673316955566406</v>
       </c>
       <c r="G14" s="1">
-        <v>15.86081600189209</v>
+        <v>16.701753616333008</v>
       </c>
       <c r="H14" s="1">
-        <v>15.868087768554688</v>
+        <v>16.684429168701172</v>
       </c>
     </row>
     <row r="15">
@@ -499,25 +496,25 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>16.465944290161133</v>
+        <v>1.6255300045013428</v>
       </c>
       <c r="C15" s="1">
-        <v>16.4981689453125</v>
+        <v>1.6375283002853394</v>
       </c>
       <c r="D15" s="1">
-        <v>16.533561706542969</v>
+        <v>1.6517643928527832</v>
       </c>
       <c r="E15" s="1">
-        <v>16.621860504150391</v>
+        <v>1.664549708366394</v>
       </c>
       <c r="F15" s="1">
-        <v>16.673316955566406</v>
+        <v>1.6784572601318359</v>
       </c>
       <c r="G15" s="1">
-        <v>16.701753616333008</v>
+        <v>1.6998440027236938</v>
       </c>
       <c r="H15" s="1">
-        <v>16.684429168701172</v>
+        <v>1.7107734680175781</v>
       </c>
     </row>
     <row r="16">
@@ -525,25 +522,25 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>1.6255300045013428</v>
+        <v>27.279594421386719</v>
       </c>
       <c r="C16" s="1">
-        <v>1.6375283002853394</v>
+        <v>27.233213424682617</v>
       </c>
       <c r="D16" s="1">
-        <v>1.6517643928527832</v>
+        <v>27.179462432861328</v>
       </c>
       <c r="E16" s="1">
-        <v>1.664549708366394</v>
+        <v>27.143133163452148</v>
       </c>
       <c r="F16" s="1">
-        <v>1.6784572601318359</v>
+        <v>27.043693542480469</v>
       </c>
       <c r="G16" s="1">
-        <v>1.6998440027236938</v>
+        <v>27.007862091064453</v>
       </c>
       <c r="H16" s="1">
-        <v>1.7107734680175781</v>
+        <v>26.996816635131836</v>
       </c>
     </row>
     <row r="17">
@@ -551,25 +548,25 @@
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>27.279594421386719</v>
+        <v>36.028423309326172</v>
       </c>
       <c r="C17" s="1">
-        <v>27.233213424682617</v>
+        <v>36.006706237792969</v>
       </c>
       <c r="D17" s="1">
-        <v>27.179462432861328</v>
+        <v>35.992000579833984</v>
       </c>
       <c r="E17" s="1">
-        <v>27.143133163452148</v>
+        <v>35.899997711181641</v>
       </c>
       <c r="F17" s="1">
-        <v>27.043693542480469</v>
+        <v>35.877849578857422</v>
       </c>
       <c r="G17" s="1">
-        <v>27.007862091064453</v>
+        <v>35.835128784179688</v>
       </c>
       <c r="H17" s="1">
-        <v>26.996816635131836</v>
+        <v>35.84136962890625</v>
       </c>
     </row>
     <row r="18">
@@ -577,25 +574,25 @@
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>36.028423309326172</v>
+        <v>18.600509643554688</v>
       </c>
       <c r="C18" s="1">
-        <v>36.006706237792969</v>
+        <v>18.624383926391602</v>
       </c>
       <c r="D18" s="1">
-        <v>35.992000579833984</v>
+        <v>18.643213272094727</v>
       </c>
       <c r="E18" s="1">
-        <v>35.899997711181641</v>
+        <v>18.670459747314453</v>
       </c>
       <c r="F18" s="1">
-        <v>35.877849578857422</v>
+        <v>18.726682662963867</v>
       </c>
       <c r="G18" s="1">
-        <v>35.835128784179688</v>
+        <v>18.755411148071289</v>
       </c>
       <c r="H18" s="1">
-        <v>35.84136962890625</v>
+        <v>18.766611099243164</v>
       </c>
     </row>
     <row r="19">
@@ -603,25 +600,25 @@
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>18.600509643554688</v>
+        <v>18.091474533081055</v>
       </c>
       <c r="C19" s="1">
-        <v>18.624383926391602</v>
+        <v>18.135696411132813</v>
       </c>
       <c r="D19" s="1">
-        <v>18.643213272094727</v>
+        <v>18.185325622558594</v>
       </c>
       <c r="E19" s="1">
-        <v>18.670459747314453</v>
+        <v>18.286409378051758</v>
       </c>
       <c r="F19" s="1">
-        <v>18.726682662963867</v>
+        <v>18.351774215698242</v>
       </c>
       <c r="G19" s="1">
-        <v>18.755411148071289</v>
+        <v>18.40159797668457</v>
       </c>
       <c r="H19" s="1">
-        <v>18.766611099243164</v>
+        <v>18.39520263671875</v>
       </c>
     </row>
     <row r="20">
@@ -629,51 +626,43 @@
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>18.091474533081055</v>
+        <v>57.224380493164063</v>
       </c>
       <c r="C20" s="1">
-        <v>18.135696411132813</v>
+        <v>94.518028259277344</v>
       </c>
       <c r="D20" s="1">
-        <v>18.185325622558594</v>
+        <v>124.73121643066406</v>
       </c>
       <c r="E20" s="1">
-        <v>18.286409378051758</v>
+        <v>111.63810729980469</v>
       </c>
       <c r="F20" s="1">
-        <v>18.351774215698242</v>
+        <v>66.280105590820313</v>
       </c>
       <c r="G20" s="1">
-        <v>18.40159797668457</v>
+        <v>75.465164184570313</v>
       </c>
       <c r="H20" s="1">
-        <v>18.39520263671875</v>
+        <v>107.39522552490234</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="1">
-        <v>57.224380493164063</v>
-      </c>
-      <c r="C21" s="1">
-        <v>94.518028259277344</v>
-      </c>
-      <c r="D21" s="1">
-        <v>124.73121643066406</v>
-      </c>
-      <c r="E21" s="1">
-        <v>111.63810729980469</v>
-      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
       <c r="F21" s="1">
-        <v>66.280105590820313</v>
+        <v>20.544464111328125</v>
       </c>
       <c r="G21" s="1">
-        <v>75.465164184570313</v>
+        <v>19.215654373168945</v>
       </c>
       <c r="H21" s="1">
-        <v>107.39522552490234</v>
+        <v>16.132402420043945</v>
       </c>
     </row>
     <row r="22">
@@ -683,34 +672,16 @@
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
+      <c r="E22" s="1">
+        <v>22257.21875</v>
+      </c>
       <c r="F22" s="1">
-        <v>20.544464111328125</v>
+        <v>28130.1640625</v>
       </c>
       <c r="G22" s="1">
-        <v>19.215654373168945</v>
+        <v>41444.46484375</v>
       </c>
       <c r="H22" s="1">
-        <v>16.132402420043945</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1">
-        <v>22257.21875</v>
-      </c>
-      <c r="F23" s="1">
-        <v>28130.1640625</v>
-      </c>
-      <c r="G23" s="1">
-        <v>41444.46484375</v>
-      </c>
-      <c r="H23" s="1">
         <v>43307.26953125</v>
       </c>
     </row>

--- a/results/initial_descriptives/combined/sumtable_countymeans.xlsx
+++ b/results/initial_descriptives/combined/sumtable_countymeans.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>year</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>urban_nr</t>
+  </si>
+  <si>
+    <t>lccNA_pcnt</t>
   </si>
 </sst>
 </file>
@@ -124,7 +127,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H23"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -297,7 +300,7 @@
         <v>6.6530900001525879</v>
       </c>
       <c r="E7" s="1">
-        <v>7.7251725196838379</v>
+        <v>7.7251720428466797</v>
       </c>
       <c r="F7" s="1">
         <v>8.5428485870361328</v>
@@ -352,7 +355,7 @@
         <v>24.678642272949219</v>
       </c>
       <c r="F9" s="1">
-        <v>24.591537475585938</v>
+        <v>24.59153938293457</v>
       </c>
       <c r="G9" s="1">
         <v>24.554176330566406</v>
@@ -395,7 +398,7 @@
         <v>14.157889366149902</v>
       </c>
       <c r="C11" s="1">
-        <v>14.144756317138672</v>
+        <v>14.144757270812988</v>
       </c>
       <c r="D11" s="1">
         <v>14.141387939453125</v>
@@ -685,6 +688,32 @@
         <v>43307.26953125</v>
       </c>
     </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1">
+        <v>53.833560943603516</v>
+      </c>
+      <c r="C23" s="1">
+        <v>57.920494079589844</v>
+      </c>
+      <c r="D23" s="1">
+        <v>80.2430419921875</v>
+      </c>
+      <c r="E23" s="1">
+        <v>83.460487365722656</v>
+      </c>
+      <c r="F23" s="1">
+        <v>92.899467468261719</v>
+      </c>
+      <c r="G23" s="1">
+        <v>85.653961181640625</v>
+      </c>
+      <c r="H23" s="1">
+        <v>109.06099700927734</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/results/initial_descriptives/combined/sumtable_countymeans.xlsx
+++ b/results/initial_descriptives/combined/sumtable_countymeans.xlsx
@@ -36,6 +36,9 @@
     <t>Urbanland_pcnt</t>
   </si>
   <si>
+    <t>lccNA_pcnt</t>
+  </si>
+  <si>
     <t>lccL1_pcnt</t>
   </si>
   <si>
@@ -79,9 +82,6 @@
   </si>
   <si>
     <t>urban_nr</t>
-  </si>
-  <si>
-    <t>lccNA_pcnt</t>
   </si>
 </sst>
 </file>
@@ -161,25 +161,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>28.125761032104492</v>
+        <v>32.332313537597656</v>
       </c>
       <c r="C2" s="1">
-        <v>26.64579963684082</v>
+        <v>31.298788070678711</v>
       </c>
       <c r="D2" s="1">
-        <v>25.165998458862305</v>
+        <v>29.553890228271484</v>
       </c>
       <c r="E2" s="1">
-        <v>24.52128791809082</v>
+        <v>29.083532333374023</v>
       </c>
       <c r="F2" s="1">
-        <v>23.52459716796875</v>
+        <v>28.575283050537109</v>
       </c>
       <c r="G2" s="1">
-        <v>23.244480133056641</v>
+        <v>27.955966949462891</v>
       </c>
       <c r="H2" s="1">
-        <v>23.984085083007813</v>
+        <v>28.168851852416992</v>
       </c>
     </row>
     <row r="3">
@@ -239,25 +239,25 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>16.106454849243164</v>
+        <v>11.899901390075684</v>
       </c>
       <c r="C5" s="1">
-        <v>16.148845672607422</v>
+        <v>11.495857238769531</v>
       </c>
       <c r="D5" s="1">
-        <v>15.718827247619629</v>
+        <v>11.330935478210449</v>
       </c>
       <c r="E5" s="1">
-        <v>15.413778305053711</v>
+        <v>10.851533889770508</v>
       </c>
       <c r="F5" s="1">
-        <v>15.694674491882324</v>
+        <v>10.643988609313965</v>
       </c>
       <c r="G5" s="1">
-        <v>15.392695426940918</v>
+        <v>10.681207656860352</v>
       </c>
       <c r="H5" s="1">
-        <v>14.879504203796387</v>
+        <v>10.694736480712891</v>
       </c>
     </row>
     <row r="6">
@@ -291,7 +291,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>5.3162059783935547</v>
+        <v>5.3162064552307129</v>
       </c>
       <c r="C7" s="1">
         <v>5.9393305778503418</v>
@@ -300,7 +300,7 @@
         <v>6.6530900001525879</v>
       </c>
       <c r="E7" s="1">
-        <v>7.7251720428466797</v>
+        <v>7.7251725196838379</v>
       </c>
       <c r="F7" s="1">
         <v>8.5428485870361328</v>
@@ -317,25 +317,25 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>2.4747059345245361</v>
+        <v>17.152181625366211</v>
       </c>
       <c r="C8" s="1">
-        <v>2.4741182327270508</v>
+        <v>17.736883163452148</v>
       </c>
       <c r="D8" s="1">
-        <v>2.4662985801696777</v>
+        <v>18.433132171630859</v>
       </c>
       <c r="E8" s="1">
-        <v>2.4644913673400879</v>
+        <v>19.374965667724609</v>
       </c>
       <c r="F8" s="1">
-        <v>2.4521551132202148</v>
+        <v>20.148725509643555</v>
       </c>
       <c r="G8" s="1">
-        <v>2.4536852836608887</v>
+        <v>20.621425628662109</v>
       </c>
       <c r="H8" s="1">
-        <v>2.4524087905883789</v>
+        <v>20.873767852783203</v>
       </c>
     </row>
     <row r="9">
@@ -343,25 +343,25 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>24.804887771606445</v>
+        <v>2.1994905471801758</v>
       </c>
       <c r="C9" s="1">
-        <v>24.759096145629883</v>
+        <v>2.188544750213623</v>
       </c>
       <c r="D9" s="1">
-        <v>24.713163375854492</v>
+        <v>2.1767771244049072</v>
       </c>
       <c r="E9" s="1">
-        <v>24.678642272949219</v>
+        <v>2.1522207260131836</v>
       </c>
       <c r="F9" s="1">
-        <v>24.59153938293457</v>
+        <v>2.1300144195556641</v>
       </c>
       <c r="G9" s="1">
-        <v>24.554176330566406</v>
+        <v>2.1135382652282715</v>
       </c>
       <c r="H9" s="1">
-        <v>24.544406890869141</v>
+        <v>2.104362964630127</v>
       </c>
     </row>
     <row r="10">
@@ -369,25 +369,25 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>21.870532989501953</v>
+        <v>21.844184875488281</v>
       </c>
       <c r="C10" s="1">
-        <v>21.861948013305664</v>
+        <v>21.663557052612305</v>
       </c>
       <c r="D10" s="1">
-        <v>21.850612640380859</v>
+        <v>21.462837219238281</v>
       </c>
       <c r="E10" s="1">
-        <v>21.800140380859375</v>
+        <v>21.188833236694336</v>
       </c>
       <c r="F10" s="1">
-        <v>21.778963088989258</v>
+        <v>20.963130950927734</v>
       </c>
       <c r="G10" s="1">
-        <v>21.80213737487793</v>
+        <v>20.812641143798828</v>
       </c>
       <c r="H10" s="1">
-        <v>21.810819625854492</v>
+        <v>20.739887237548828</v>
       </c>
     </row>
     <row r="11">
@@ -395,25 +395,25 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>14.157889366149902</v>
+        <v>18.798871994018555</v>
       </c>
       <c r="C11" s="1">
-        <v>14.144757270812988</v>
+        <v>18.672138214111328</v>
       </c>
       <c r="D11" s="1">
-        <v>14.141387939453125</v>
+        <v>18.506221771240234</v>
       </c>
       <c r="E11" s="1">
-        <v>14.099856376647949</v>
+        <v>18.278806686401367</v>
       </c>
       <c r="F11" s="1">
-        <v>14.09888744354248</v>
+        <v>18.108024597167969</v>
       </c>
       <c r="G11" s="1">
-        <v>14.032992362976074</v>
+        <v>18.009159088134766</v>
       </c>
       <c r="H11" s="1">
-        <v>14.030549049377441</v>
+        <v>17.952516555786133</v>
       </c>
     </row>
     <row r="12">
@@ -421,25 +421,25 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>2.8322567939758301</v>
+        <v>11.760732650756836</v>
       </c>
       <c r="C12" s="1">
-        <v>2.8388514518737793</v>
+        <v>11.671309471130371</v>
       </c>
       <c r="D12" s="1">
-        <v>2.8458425998687744</v>
+        <v>11.555923461914063</v>
       </c>
       <c r="E12" s="1">
-        <v>2.8625130653381348</v>
+        <v>11.40102481842041</v>
       </c>
       <c r="F12" s="1">
-        <v>2.8833553791046143</v>
+        <v>11.273367881774902</v>
       </c>
       <c r="G12" s="1">
-        <v>2.8945941925048828</v>
+        <v>11.193347930908203</v>
       </c>
       <c r="H12" s="1">
-        <v>2.8985235691070557</v>
+        <v>11.152796745300293</v>
       </c>
     </row>
     <row r="13">
@@ -447,25 +447,25 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>15.768252372741699</v>
+        <v>2.3752191066741943</v>
       </c>
       <c r="C13" s="1">
-        <v>15.785531997680664</v>
+        <v>2.3601162433624268</v>
       </c>
       <c r="D13" s="1">
-        <v>15.797369956970215</v>
+        <v>2.3400354385375977</v>
       </c>
       <c r="E13" s="1">
-        <v>15.807947158813477</v>
+        <v>2.3190281391143799</v>
       </c>
       <c r="F13" s="1">
-        <v>15.843327522277832</v>
+        <v>2.3039166927337646</v>
       </c>
       <c r="G13" s="1">
-        <v>15.86081600189209</v>
+        <v>2.2924952507019043</v>
       </c>
       <c r="H13" s="1">
-        <v>15.868087768554688</v>
+        <v>2.2859783172607422</v>
       </c>
     </row>
     <row r="14">
@@ -473,25 +473,25 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>16.465944290161133</v>
+        <v>12.51448917388916</v>
       </c>
       <c r="C14" s="1">
-        <v>16.4981689453125</v>
+        <v>12.442048072814941</v>
       </c>
       <c r="D14" s="1">
-        <v>16.533561706542969</v>
+        <v>12.35645866394043</v>
       </c>
       <c r="E14" s="1">
-        <v>16.621860504150391</v>
+        <v>12.235201835632324</v>
       </c>
       <c r="F14" s="1">
-        <v>16.673316955566406</v>
+        <v>12.138643264770508</v>
       </c>
       <c r="G14" s="1">
-        <v>16.701753616333008</v>
+        <v>12.086548805236816</v>
       </c>
       <c r="H14" s="1">
-        <v>16.684429168701172</v>
+        <v>12.054340362548828</v>
       </c>
     </row>
     <row r="15">
@@ -499,25 +499,25 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>1.6255300045013428</v>
+        <v>12.412484169006348</v>
       </c>
       <c r="C15" s="1">
-        <v>1.6375283002853394</v>
+        <v>12.334586143493652</v>
       </c>
       <c r="D15" s="1">
-        <v>1.6517643928527832</v>
+        <v>12.24983024597168</v>
       </c>
       <c r="E15" s="1">
-        <v>1.664549708366394</v>
+        <v>12.146387100219727</v>
       </c>
       <c r="F15" s="1">
-        <v>1.6784572601318359</v>
+        <v>12.036617279052734</v>
       </c>
       <c r="G15" s="1">
-        <v>1.6998440027236938</v>
+        <v>11.974529266357422</v>
       </c>
       <c r="H15" s="1">
-        <v>1.7107734680175781</v>
+        <v>11.937031745910645</v>
       </c>
     </row>
     <row r="16">
@@ -525,25 +525,25 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>27.279594421386719</v>
+        <v>0.94234597682952881</v>
       </c>
       <c r="C16" s="1">
-        <v>27.233213424682617</v>
+        <v>0.93081504106521606</v>
       </c>
       <c r="D16" s="1">
-        <v>27.179462432861328</v>
+        <v>0.9187847375869751</v>
       </c>
       <c r="E16" s="1">
-        <v>27.143133163452148</v>
+        <v>0.90353149175643921</v>
       </c>
       <c r="F16" s="1">
-        <v>27.043693542480469</v>
+        <v>0.89755988121032715</v>
       </c>
       <c r="G16" s="1">
-        <v>27.007862091064453</v>
+        <v>0.89631485939025879</v>
       </c>
       <c r="H16" s="1">
-        <v>26.996816635131836</v>
+        <v>0.89931869506835938</v>
       </c>
     </row>
     <row r="17">
@@ -551,25 +551,25 @@
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>36.028423309326172</v>
+        <v>24.043676376342773</v>
       </c>
       <c r="C17" s="1">
-        <v>36.006706237792969</v>
+        <v>23.852102279663086</v>
       </c>
       <c r="D17" s="1">
-        <v>35.992000579833984</v>
+        <v>23.639614105224609</v>
       </c>
       <c r="E17" s="1">
-        <v>35.899997711181641</v>
+        <v>23.341053009033203</v>
       </c>
       <c r="F17" s="1">
-        <v>35.877849578857422</v>
+        <v>23.093145370483398</v>
       </c>
       <c r="G17" s="1">
-        <v>35.835128784179688</v>
+        <v>22.926177978515625</v>
       </c>
       <c r="H17" s="1">
-        <v>35.84136962890625</v>
+        <v>22.84425163269043</v>
       </c>
     </row>
     <row r="18">
@@ -577,25 +577,25 @@
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>18.600509643554688</v>
+        <v>30.559604644775391</v>
       </c>
       <c r="C18" s="1">
-        <v>18.624383926391602</v>
+        <v>30.343448638916016</v>
       </c>
       <c r="D18" s="1">
-        <v>18.643213272094727</v>
+        <v>30.062145233154297</v>
       </c>
       <c r="E18" s="1">
-        <v>18.670459747314453</v>
+        <v>29.679832458496094</v>
       </c>
       <c r="F18" s="1">
-        <v>18.726682662963867</v>
+        <v>29.381391525268555</v>
       </c>
       <c r="G18" s="1">
-        <v>18.755411148071289</v>
+        <v>29.202508926391602</v>
       </c>
       <c r="H18" s="1">
-        <v>18.766611099243164</v>
+        <v>29.105312347412109</v>
       </c>
     </row>
     <row r="19">
@@ -603,25 +603,25 @@
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>18.091474533081055</v>
+        <v>14.889708518981934</v>
       </c>
       <c r="C19" s="1">
-        <v>18.135696411132813</v>
+        <v>14.802164077758789</v>
       </c>
       <c r="D19" s="1">
-        <v>18.185325622558594</v>
+        <v>14.696494102478027</v>
       </c>
       <c r="E19" s="1">
-        <v>18.286409378051758</v>
+        <v>14.554229736328125</v>
       </c>
       <c r="F19" s="1">
-        <v>18.351774215698242</v>
+        <v>14.442560195922852</v>
       </c>
       <c r="G19" s="1">
-        <v>18.40159797668457</v>
+        <v>14.379043579101563</v>
       </c>
       <c r="H19" s="1">
-        <v>18.39520263671875</v>
+        <v>14.34031867980957</v>
       </c>
     </row>
     <row r="20">
@@ -629,43 +629,51 @@
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>57.224380493164063</v>
+        <v>13.354830741882324</v>
       </c>
       <c r="C20" s="1">
-        <v>94.518028259277344</v>
+        <v>13.265400886535645</v>
       </c>
       <c r="D20" s="1">
-        <v>124.73121643066406</v>
+        <v>13.168615341186523</v>
       </c>
       <c r="E20" s="1">
-        <v>111.63810729980469</v>
+        <v>13.049918174743652</v>
       </c>
       <c r="F20" s="1">
-        <v>66.280105590820313</v>
+        <v>12.934177398681641</v>
       </c>
       <c r="G20" s="1">
-        <v>75.465164184570313</v>
+        <v>12.870843887329102</v>
       </c>
       <c r="H20" s="1">
-        <v>107.39522552490234</v>
+        <v>12.836350440979004</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
+      <c r="B21" s="1">
+        <v>57.224380493164063</v>
+      </c>
+      <c r="C21" s="1">
+        <v>94.518028259277344</v>
+      </c>
+      <c r="D21" s="1">
+        <v>124.73121643066406</v>
+      </c>
+      <c r="E21" s="1">
+        <v>111.63810729980469</v>
+      </c>
       <c r="F21" s="1">
-        <v>20.544464111328125</v>
+        <v>66.280105590820313</v>
       </c>
       <c r="G21" s="1">
-        <v>19.215654373168945</v>
+        <v>75.465164184570313</v>
       </c>
       <c r="H21" s="1">
-        <v>16.132402420043945</v>
+        <v>107.39522552490234</v>
       </c>
     </row>
     <row r="22">
@@ -675,43 +683,35 @@
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="1">
-        <v>22257.21875</v>
-      </c>
+      <c r="E22" s="1"/>
       <c r="F22" s="1">
-        <v>28130.1640625</v>
+        <v>20.544464111328125</v>
       </c>
       <c r="G22" s="1">
-        <v>41444.46484375</v>
+        <v>19.215654373168945</v>
       </c>
       <c r="H22" s="1">
-        <v>43307.26953125</v>
+        <v>16.132402420043945</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="1">
-        <v>53.833560943603516</v>
-      </c>
-      <c r="C23" s="1">
-        <v>57.920494079589844</v>
-      </c>
-      <c r="D23" s="1">
-        <v>80.2430419921875</v>
-      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
       <c r="E23" s="1">
-        <v>83.460487365722656</v>
+        <v>22257.21875</v>
       </c>
       <c r="F23" s="1">
-        <v>92.899467468261719</v>
+        <v>28130.1640625</v>
       </c>
       <c r="G23" s="1">
-        <v>85.653961181640625</v>
+        <v>41444.46484375</v>
       </c>
       <c r="H23" s="1">
-        <v>109.06099700927734</v>
+        <v>43307.26953125</v>
       </c>
     </row>
   </sheetData>

--- a/results/initial_descriptives/combined/sumtable_countymeans.xlsx
+++ b/results/initial_descriptives/combined/sumtable_countymeans.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>year</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>lccL78_pcnt</t>
+  </si>
+  <si>
+    <t>CRP_nr</t>
   </si>
   <si>
     <t>crop_nr</t>
@@ -127,7 +130,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H24"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -161,25 +164,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>32.332313537597656</v>
+        <v>32.311275482177734</v>
       </c>
       <c r="C2" s="1">
-        <v>31.298788070678711</v>
+        <v>31.278425216674805</v>
       </c>
       <c r="D2" s="1">
-        <v>29.553890228271484</v>
+        <v>29.534662246704102</v>
       </c>
       <c r="E2" s="1">
-        <v>29.083532333374023</v>
+        <v>29.064609527587891</v>
       </c>
       <c r="F2" s="1">
-        <v>28.575283050537109</v>
+        <v>28.556692123413086</v>
       </c>
       <c r="G2" s="1">
-        <v>27.955966949462891</v>
+        <v>27.937778472900391</v>
       </c>
       <c r="H2" s="1">
-        <v>28.168851852416992</v>
+        <v>28.15052604675293</v>
       </c>
     </row>
     <row r="3">
@@ -190,22 +193,22 @@
         <v>0</v>
       </c>
       <c r="C3" s="1">
-        <v>0.85870075225830078</v>
+        <v>0.85814207792282104</v>
       </c>
       <c r="D3" s="1">
-        <v>2.1823241710662842</v>
+        <v>2.1809043884277344</v>
       </c>
       <c r="E3" s="1">
-        <v>2.0761411190032959</v>
+        <v>2.0747904777526855</v>
       </c>
       <c r="F3" s="1">
-        <v>1.8803716897964478</v>
+        <v>1.8791482448577881</v>
       </c>
       <c r="G3" s="1">
-        <v>1.9339430332183838</v>
+        <v>1.9326847791671753</v>
       </c>
       <c r="H3" s="1">
-        <v>1.4021095037460327</v>
+        <v>1.4011971950531006</v>
       </c>
     </row>
     <row r="4">
@@ -213,25 +216,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>34.908100128173828</v>
+        <v>34.885387420654297</v>
       </c>
       <c r="C4" s="1">
-        <v>35.098213195800781</v>
+        <v>35.07537841796875</v>
       </c>
       <c r="D4" s="1">
-        <v>35.120071411132813</v>
+        <v>35.097221374511719</v>
       </c>
       <c r="E4" s="1">
-        <v>35.134029388427734</v>
+        <v>35.111167907714844</v>
       </c>
       <c r="F4" s="1">
-        <v>35.237506866455078</v>
+        <v>35.214580535888672</v>
       </c>
       <c r="G4" s="1">
-        <v>35.257175445556641</v>
+        <v>35.234233856201172</v>
       </c>
       <c r="H4" s="1">
-        <v>35.342998504638672</v>
+        <v>35.320003509521484</v>
       </c>
     </row>
     <row r="5">
@@ -239,25 +242,25 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>11.899901390075684</v>
+        <v>11.892159461975098</v>
       </c>
       <c r="C5" s="1">
-        <v>11.495857238769531</v>
+        <v>11.488377571105957</v>
       </c>
       <c r="D5" s="1">
-        <v>11.330935478210449</v>
+        <v>11.323563575744629</v>
       </c>
       <c r="E5" s="1">
-        <v>10.851533889770508</v>
+        <v>10.844473838806152</v>
       </c>
       <c r="F5" s="1">
-        <v>10.643988609313965</v>
+        <v>10.637063026428223</v>
       </c>
       <c r="G5" s="1">
-        <v>10.681207656860352</v>
+        <v>10.674258232116699</v>
       </c>
       <c r="H5" s="1">
-        <v>10.694736480712891</v>
+        <v>10.687778472900391</v>
       </c>
     </row>
     <row r="6">
@@ -265,25 +268,25 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>15.54348087310791</v>
+        <v>15.533368110656738</v>
       </c>
       <c r="C6" s="1">
-        <v>15.309108734130859</v>
+        <v>15.299148559570313</v>
       </c>
       <c r="D6" s="1">
-        <v>15.159688949584961</v>
+        <v>15.149826049804688</v>
       </c>
       <c r="E6" s="1">
-        <v>15.129592895507813</v>
+        <v>15.119749069213867</v>
       </c>
       <c r="F6" s="1">
-        <v>15.120001792907715</v>
+        <v>15.110164642333984</v>
       </c>
       <c r="G6" s="1">
-        <v>15.093488693237305</v>
+        <v>15.08366870880127</v>
       </c>
       <c r="H6" s="1">
-        <v>15.042671203613281</v>
+        <v>15.032883644104004</v>
       </c>
     </row>
     <row r="7">
@@ -291,25 +294,25 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>5.3162064552307129</v>
+        <v>5.3127474784851074</v>
       </c>
       <c r="C7" s="1">
-        <v>5.9393305778503418</v>
+        <v>5.9354662895202637</v>
       </c>
       <c r="D7" s="1">
-        <v>6.6530900001525879</v>
+        <v>6.6487612724304199</v>
       </c>
       <c r="E7" s="1">
-        <v>7.7251725196838379</v>
+        <v>7.7201461791992188</v>
       </c>
       <c r="F7" s="1">
-        <v>8.5428485870361328</v>
+        <v>8.5372905731201172</v>
       </c>
       <c r="G7" s="1">
-        <v>9.0782184600830078</v>
+        <v>9.0723123550415039</v>
       </c>
       <c r="H7" s="1">
-        <v>9.3486337661743164</v>
+        <v>9.3425521850585938</v>
       </c>
     </row>
     <row r="8">
@@ -317,25 +320,25 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>17.152181625366211</v>
+        <v>17.206083297729492</v>
       </c>
       <c r="C8" s="1">
-        <v>17.736883163452148</v>
+        <v>17.7904052734375</v>
       </c>
       <c r="D8" s="1">
-        <v>18.433132171630859</v>
+        <v>18.486202239990234</v>
       </c>
       <c r="E8" s="1">
-        <v>19.374965667724609</v>
+        <v>19.427421569824219</v>
       </c>
       <c r="F8" s="1">
-        <v>20.148725509643555</v>
+        <v>20.200677871704102</v>
       </c>
       <c r="G8" s="1">
-        <v>20.621425628662109</v>
+        <v>20.673070907592773</v>
       </c>
       <c r="H8" s="1">
-        <v>20.873767852783203</v>
+        <v>20.925247192382813</v>
       </c>
     </row>
     <row r="9">
@@ -343,25 +346,25 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>2.1994905471801758</v>
+        <v>2.1980595588684082</v>
       </c>
       <c r="C9" s="1">
-        <v>2.188544750213623</v>
+        <v>2.1871206760406494</v>
       </c>
       <c r="D9" s="1">
-        <v>2.1767771244049072</v>
+        <v>2.1753609180450439</v>
       </c>
       <c r="E9" s="1">
-        <v>2.1522207260131836</v>
+        <v>2.1508204936981201</v>
       </c>
       <c r="F9" s="1">
-        <v>2.1300144195556641</v>
+        <v>2.1286287307739258</v>
       </c>
       <c r="G9" s="1">
-        <v>2.1135382652282715</v>
+        <v>2.1121630668640137</v>
       </c>
       <c r="H9" s="1">
-        <v>2.104362964630127</v>
+        <v>2.1029939651489258</v>
       </c>
     </row>
     <row r="10">
@@ -369,25 +372,25 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>21.844184875488281</v>
+        <v>21.829973220825195</v>
       </c>
       <c r="C10" s="1">
-        <v>21.663557052612305</v>
+        <v>21.649463653564453</v>
       </c>
       <c r="D10" s="1">
-        <v>21.462837219238281</v>
+        <v>21.448871612548828</v>
       </c>
       <c r="E10" s="1">
-        <v>21.188833236694336</v>
+        <v>21.175046920776367</v>
       </c>
       <c r="F10" s="1">
-        <v>20.963130950927734</v>
+        <v>20.949491500854492</v>
       </c>
       <c r="G10" s="1">
-        <v>20.812641143798828</v>
+        <v>20.799098968505859</v>
       </c>
       <c r="H10" s="1">
-        <v>20.739887237548828</v>
+        <v>20.726394653320313</v>
       </c>
     </row>
     <row r="11">
@@ -395,25 +398,25 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>18.798871994018555</v>
+        <v>18.786640167236328</v>
       </c>
       <c r="C11" s="1">
-        <v>18.672138214111328</v>
+        <v>18.659990310668945</v>
       </c>
       <c r="D11" s="1">
-        <v>18.506221771240234</v>
+        <v>18.494180679321289</v>
       </c>
       <c r="E11" s="1">
-        <v>18.278806686401367</v>
+        <v>18.266914367675781</v>
       </c>
       <c r="F11" s="1">
-        <v>18.108024597167969</v>
+        <v>18.096242904663086</v>
       </c>
       <c r="G11" s="1">
-        <v>18.009159088134766</v>
+        <v>17.997442245483398</v>
       </c>
       <c r="H11" s="1">
-        <v>17.952516555786133</v>
+        <v>17.940835952758789</v>
       </c>
     </row>
     <row r="12">
@@ -421,25 +424,25 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>11.760732650756836</v>
+        <v>11.753081321716309</v>
       </c>
       <c r="C12" s="1">
-        <v>11.671309471130371</v>
+        <v>11.663716316223145</v>
       </c>
       <c r="D12" s="1">
-        <v>11.555923461914063</v>
+        <v>11.548404693603516</v>
       </c>
       <c r="E12" s="1">
-        <v>11.40102481842041</v>
+        <v>11.393607139587402</v>
       </c>
       <c r="F12" s="1">
-        <v>11.273367881774902</v>
+        <v>11.266033172607422</v>
       </c>
       <c r="G12" s="1">
-        <v>11.193347930908203</v>
+        <v>11.186065673828125</v>
       </c>
       <c r="H12" s="1">
-        <v>11.152796745300293</v>
+        <v>11.145540237426758</v>
       </c>
     </row>
     <row r="13">
@@ -447,25 +450,25 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>2.3752191066741943</v>
+        <v>2.373673677444458</v>
       </c>
       <c r="C13" s="1">
-        <v>2.3601162433624268</v>
+        <v>2.3585808277130127</v>
       </c>
       <c r="D13" s="1">
-        <v>2.3400354385375977</v>
+        <v>2.3385131359100342</v>
       </c>
       <c r="E13" s="1">
-        <v>2.3190281391143799</v>
+        <v>2.3175194263458252</v>
       </c>
       <c r="F13" s="1">
-        <v>2.3039166927337646</v>
+        <v>2.3024177551269531</v>
       </c>
       <c r="G13" s="1">
-        <v>2.2924952507019043</v>
+        <v>2.2910037040710449</v>
       </c>
       <c r="H13" s="1">
-        <v>2.2859783172607422</v>
+        <v>2.2844910621643066</v>
       </c>
     </row>
     <row r="14">
@@ -473,25 +476,25 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>12.51448917388916</v>
+        <v>12.506346702575684</v>
       </c>
       <c r="C14" s="1">
-        <v>12.442048072814941</v>
+        <v>12.433952331542969</v>
       </c>
       <c r="D14" s="1">
-        <v>12.35645866394043</v>
+        <v>12.348419189453125</v>
       </c>
       <c r="E14" s="1">
-        <v>12.235201835632324</v>
+        <v>12.227241516113281</v>
       </c>
       <c r="F14" s="1">
-        <v>12.138643264770508</v>
+        <v>12.130745887756348</v>
       </c>
       <c r="G14" s="1">
-        <v>12.086548805236816</v>
+        <v>12.07868480682373</v>
       </c>
       <c r="H14" s="1">
-        <v>12.054340362548828</v>
+        <v>12.046497344970703</v>
       </c>
     </row>
     <row r="15">
@@ -499,25 +502,25 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>12.412484169006348</v>
+        <v>12.40440845489502</v>
       </c>
       <c r="C15" s="1">
-        <v>12.334586143493652</v>
+        <v>12.326560974121094</v>
       </c>
       <c r="D15" s="1">
-        <v>12.24983024597168</v>
+        <v>12.241860389709473</v>
       </c>
       <c r="E15" s="1">
-        <v>12.146387100219727</v>
+        <v>12.138484001159668</v>
       </c>
       <c r="F15" s="1">
-        <v>12.036617279052734</v>
+        <v>12.028786659240723</v>
       </c>
       <c r="G15" s="1">
-        <v>11.974529266357422</v>
+        <v>11.966737747192383</v>
       </c>
       <c r="H15" s="1">
-        <v>11.937031745910645</v>
+        <v>11.929265022277832</v>
       </c>
     </row>
     <row r="16">
@@ -525,25 +528,25 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>0.94234597682952881</v>
+        <v>0.94173288345336914</v>
       </c>
       <c r="C16" s="1">
-        <v>0.93081504106521606</v>
+        <v>0.9302094578742981</v>
       </c>
       <c r="D16" s="1">
-        <v>0.9187847375869751</v>
+        <v>0.91818696260452271</v>
       </c>
       <c r="E16" s="1">
-        <v>0.90353149175643921</v>
+        <v>0.90294367074966431</v>
       </c>
       <c r="F16" s="1">
-        <v>0.89755988121032715</v>
+        <v>0.89697593450546265</v>
       </c>
       <c r="G16" s="1">
-        <v>0.89631485939025879</v>
+        <v>0.89573168754577637</v>
       </c>
       <c r="H16" s="1">
-        <v>0.89931869506835938</v>
+        <v>0.89873361587524414</v>
       </c>
     </row>
     <row r="17">
@@ -551,25 +554,25 @@
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>24.043676376342773</v>
+        <v>24.028032302856445</v>
       </c>
       <c r="C17" s="1">
-        <v>23.852102279663086</v>
+        <v>23.836584091186523</v>
       </c>
       <c r="D17" s="1">
-        <v>23.639614105224609</v>
+        <v>23.624233245849609</v>
       </c>
       <c r="E17" s="1">
-        <v>23.341053009033203</v>
+        <v>23.32586669921875</v>
       </c>
       <c r="F17" s="1">
-        <v>23.093145370483398</v>
+        <v>23.078119277954102</v>
       </c>
       <c r="G17" s="1">
-        <v>22.926177978515625</v>
+        <v>22.911262512207031</v>
       </c>
       <c r="H17" s="1">
-        <v>22.84425163269043</v>
+        <v>22.829387664794922</v>
       </c>
     </row>
     <row r="18">
@@ -577,25 +580,25 @@
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>30.559604644775391</v>
+        <v>30.539722442626953</v>
       </c>
       <c r="C18" s="1">
-        <v>30.343448638916016</v>
+        <v>30.323707580566406</v>
       </c>
       <c r="D18" s="1">
-        <v>30.062145233154297</v>
+        <v>30.042585372924805</v>
       </c>
       <c r="E18" s="1">
-        <v>29.679832458496094</v>
+        <v>29.660520553588867</v>
       </c>
       <c r="F18" s="1">
-        <v>29.381391525268555</v>
+        <v>29.362276077270508</v>
       </c>
       <c r="G18" s="1">
-        <v>29.202508926391602</v>
+        <v>29.183507919311523</v>
       </c>
       <c r="H18" s="1">
-        <v>29.105312347412109</v>
+        <v>29.086376190185547</v>
       </c>
     </row>
     <row r="19">
@@ -603,25 +606,25 @@
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>14.889708518981934</v>
+        <v>14.880021095275879</v>
       </c>
       <c r="C19" s="1">
-        <v>14.802164077758789</v>
+        <v>14.792532920837402</v>
       </c>
       <c r="D19" s="1">
-        <v>14.696494102478027</v>
+        <v>14.686932563781738</v>
       </c>
       <c r="E19" s="1">
-        <v>14.554229736328125</v>
+        <v>14.544760704040527</v>
       </c>
       <c r="F19" s="1">
-        <v>14.442560195922852</v>
+        <v>14.433163642883301</v>
       </c>
       <c r="G19" s="1">
-        <v>14.379043579101563</v>
+        <v>14.369688034057617</v>
       </c>
       <c r="H19" s="1">
-        <v>14.34031867980957</v>
+        <v>14.330988883972168</v>
       </c>
     </row>
     <row r="20">
@@ -629,69 +632,75 @@
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>13.354830741882324</v>
+        <v>13.346141815185547</v>
       </c>
       <c r="C20" s="1">
-        <v>13.265400886535645</v>
+        <v>13.256770133972168</v>
       </c>
       <c r="D20" s="1">
-        <v>13.168615341186523</v>
+        <v>13.16004753112793</v>
       </c>
       <c r="E20" s="1">
-        <v>13.049918174743652</v>
+        <v>13.041427612304688</v>
       </c>
       <c r="F20" s="1">
-        <v>12.934177398681641</v>
+        <v>12.925762176513672</v>
       </c>
       <c r="G20" s="1">
-        <v>12.870843887329102</v>
+        <v>12.862469673156738</v>
       </c>
       <c r="H20" s="1">
-        <v>12.836350440979004</v>
+        <v>12.827999114990234</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="1">
-        <v>57.224380493164063</v>
-      </c>
+      <c r="B21" s="1"/>
       <c r="C21" s="1">
-        <v>94.518028259277344</v>
+        <v>50.865180969238281</v>
       </c>
       <c r="D21" s="1">
-        <v>124.73121643066406</v>
+        <v>52.805267333984375</v>
       </c>
       <c r="E21" s="1">
-        <v>111.63810729980469</v>
+        <v>53.657325744628906</v>
       </c>
       <c r="F21" s="1">
-        <v>66.280105590820313</v>
+        <v>55.877994537353516</v>
       </c>
       <c r="G21" s="1">
-        <v>75.465164184570313</v>
+        <v>59.601699829101563</v>
       </c>
       <c r="H21" s="1">
-        <v>107.39522552490234</v>
+        <v>68.188255310058594</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
+      <c r="B22" s="1">
+        <v>57.224380493164063</v>
+      </c>
+      <c r="C22" s="1">
+        <v>94.518028259277344</v>
+      </c>
+      <c r="D22" s="1">
+        <v>124.73121643066406</v>
+      </c>
+      <c r="E22" s="1">
+        <v>111.63810729980469</v>
+      </c>
       <c r="F22" s="1">
-        <v>20.544464111328125</v>
+        <v>66.280105590820313</v>
       </c>
       <c r="G22" s="1">
-        <v>19.215654373168945</v>
+        <v>75.465164184570313</v>
       </c>
       <c r="H22" s="1">
-        <v>16.132402420043945</v>
+        <v>107.39522552490234</v>
       </c>
     </row>
     <row r="23">
@@ -701,17 +710,35 @@
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="1">
-        <v>22257.21875</v>
-      </c>
+      <c r="E23" s="1"/>
       <c r="F23" s="1">
-        <v>28130.1640625</v>
+        <v>20.555309295654297</v>
       </c>
       <c r="G23" s="1">
-        <v>41444.46484375</v>
+        <v>19.22590446472168</v>
       </c>
       <c r="H23" s="1">
-        <v>43307.26953125</v>
+        <v>16.138092041015625</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1">
+        <v>22334.931640625</v>
+      </c>
+      <c r="F24" s="1">
+        <v>28291.578125</v>
+      </c>
+      <c r="G24" s="1">
+        <v>41637.09375</v>
+      </c>
+      <c r="H24" s="1">
+        <v>43642.6015625</v>
       </c>
     </row>
   </sheetData>

--- a/results/initial_descriptives/combined/sumtable_countymeans.xlsx
+++ b/results/initial_descriptives/combined/sumtable_countymeans.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>year</t>
   </si>
@@ -21,21 +21,39 @@
     <t>Cropland_pcnt</t>
   </si>
   <si>
+    <t>Cropland_pcnt2</t>
+  </si>
+  <si>
     <t>CRPland_pcnt</t>
   </si>
   <si>
+    <t>CRPland_pcnt2</t>
+  </si>
+  <si>
     <t>Forestland_pcnt</t>
   </si>
   <si>
+    <t>Forestland_pcnt2</t>
+  </si>
+  <si>
     <t>Pastureland_pcnt</t>
   </si>
   <si>
+    <t>Pastureland_pcnt2</t>
+  </si>
+  <si>
     <t>Rangeland_pcnt</t>
   </si>
   <si>
+    <t>Rangeland_pcnt2</t>
+  </si>
+  <si>
     <t>Urbanland_pcnt</t>
   </si>
   <si>
+    <t>Urbanland_pcnt2</t>
+  </si>
+  <si>
     <t>lccNA_pcnt</t>
   </si>
   <si>
@@ -75,6 +93,9 @@
     <t>lccL78_pcnt</t>
   </si>
   <si>
+    <t>pasture_nr</t>
+  </si>
+  <si>
     <t>CRP_nr</t>
   </si>
   <si>
@@ -85,6 +106,15 @@
   </si>
   <si>
     <t>urban_nr</t>
+  </si>
+  <si>
+    <t>Federalland_pcnt2</t>
+  </si>
+  <si>
+    <t>Waterland_pcnt2</t>
+  </si>
+  <si>
+    <t>Ruralland_pcnt2</t>
   </si>
 </sst>
 </file>
@@ -130,7 +160,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:I34"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -158,6 +188,7 @@
       <c r="H1" s="1">
         <v>2012</v>
       </c>
+      <c r="I1" s="1"/>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -184,562 +215,849 @@
       <c r="H2" s="1">
         <v>28.15052604675293</v>
       </c>
+      <c r="I2" s="1"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>0</v>
+        <v>28.882858276367188</v>
       </c>
       <c r="C3" s="1">
-        <v>0.85814207792282104</v>
+        <v>27.936105728149414</v>
       </c>
       <c r="D3" s="1">
-        <v>2.1809043884277344</v>
+        <v>26.352046966552734</v>
       </c>
       <c r="E3" s="1">
-        <v>2.0747904777526855</v>
+        <v>25.934478759765625</v>
       </c>
       <c r="F3" s="1">
-        <v>1.8791482448577881</v>
+        <v>25.475709915161133</v>
       </c>
       <c r="G3" s="1">
-        <v>1.9326847791671753</v>
+        <v>24.911537170410156</v>
       </c>
       <c r="H3" s="1">
-        <v>1.4011971950531006</v>
-      </c>
+        <v>25.096437454223633</v>
+      </c>
+      <c r="I3" s="1"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>34.885387420654297</v>
+        <v>0</v>
       </c>
       <c r="C4" s="1">
-        <v>35.07537841796875</v>
+        <v>0.85814207792282104</v>
       </c>
       <c r="D4" s="1">
-        <v>35.097221374511719</v>
+        <v>2.1809043884277344</v>
       </c>
       <c r="E4" s="1">
-        <v>35.111167907714844</v>
+        <v>2.0747904777526855</v>
       </c>
       <c r="F4" s="1">
-        <v>35.214580535888672</v>
+        <v>1.8791482448577881</v>
       </c>
       <c r="G4" s="1">
-        <v>35.234233856201172</v>
+        <v>1.9326847791671753</v>
       </c>
       <c r="H4" s="1">
-        <v>35.320003509521484</v>
-      </c>
+        <v>1.4011971950531006</v>
+      </c>
+      <c r="I4" s="1"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>11.892159461975098</v>
+        <v>0</v>
       </c>
       <c r="C5" s="1">
-        <v>11.488377571105957</v>
+        <v>0.77820980548858643</v>
       </c>
       <c r="D5" s="1">
-        <v>11.323563575744629</v>
+        <v>1.9856061935424805</v>
       </c>
       <c r="E5" s="1">
-        <v>10.844473838806152</v>
+        <v>1.8883836269378662</v>
       </c>
       <c r="F5" s="1">
-        <v>10.637063026428223</v>
+        <v>1.7090328931808472</v>
       </c>
       <c r="G5" s="1">
-        <v>10.674258232116699</v>
+        <v>1.7556988000869751</v>
       </c>
       <c r="H5" s="1">
-        <v>10.687778472900391</v>
-      </c>
+        <v>1.2726571559906006</v>
+      </c>
+      <c r="I5" s="1"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>15.533368110656738</v>
+        <v>34.885387420654297</v>
       </c>
       <c r="C6" s="1">
-        <v>15.299148559570313</v>
+        <v>35.07537841796875</v>
       </c>
       <c r="D6" s="1">
-        <v>15.149826049804688</v>
+        <v>35.097221374511719</v>
       </c>
       <c r="E6" s="1">
-        <v>15.119749069213867</v>
+        <v>35.111167907714844</v>
       </c>
       <c r="F6" s="1">
-        <v>15.110164642333984</v>
+        <v>35.214580535888672</v>
       </c>
       <c r="G6" s="1">
-        <v>15.08366870880127</v>
+        <v>35.234233856201172</v>
       </c>
       <c r="H6" s="1">
-        <v>15.032883644104004</v>
-      </c>
+        <v>35.320003509521484</v>
+      </c>
+      <c r="I6" s="1"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>5.3127474784851074</v>
+        <v>29.085111618041992</v>
       </c>
       <c r="C7" s="1">
-        <v>5.9354662895202637</v>
+        <v>29.262538909912109</v>
       </c>
       <c r="D7" s="1">
-        <v>6.6487612724304199</v>
+        <v>29.271251678466797</v>
       </c>
       <c r="E7" s="1">
-        <v>7.7201461791992188</v>
+        <v>29.302982330322266</v>
       </c>
       <c r="F7" s="1">
-        <v>8.5372905731201172</v>
+        <v>29.358697891235352</v>
       </c>
       <c r="G7" s="1">
-        <v>9.0723123550415039</v>
+        <v>29.327066421508789</v>
       </c>
       <c r="H7" s="1">
-        <v>9.3425521850585938</v>
-      </c>
+        <v>29.380203247070313</v>
+      </c>
+      <c r="I7" s="1"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>17.206083297729492</v>
+        <v>11.892159461975098</v>
       </c>
       <c r="C8" s="1">
-        <v>17.7904052734375</v>
+        <v>11.488377571105957</v>
       </c>
       <c r="D8" s="1">
-        <v>18.486202239990234</v>
+        <v>11.323563575744629</v>
       </c>
       <c r="E8" s="1">
-        <v>19.427421569824219</v>
+        <v>10.844473838806152</v>
       </c>
       <c r="F8" s="1">
-        <v>20.200677871704102</v>
+        <v>10.637063026428223</v>
       </c>
       <c r="G8" s="1">
-        <v>20.673070907592773</v>
+        <v>10.674258232116699</v>
       </c>
       <c r="H8" s="1">
-        <v>20.925247192382813</v>
-      </c>
+        <v>10.687778472900391</v>
+      </c>
+      <c r="I8" s="1"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>2.1980595588684082</v>
+        <v>10.38019847869873</v>
       </c>
       <c r="C9" s="1">
-        <v>2.1871206760406494</v>
+        <v>9.9914932250976563</v>
       </c>
       <c r="D9" s="1">
-        <v>2.1753609180450439</v>
+        <v>9.8289861679077148</v>
       </c>
       <c r="E9" s="1">
-        <v>2.1508204936981201</v>
+        <v>9.3934898376464844</v>
       </c>
       <c r="F9" s="1">
-        <v>2.1286287307739258</v>
+        <v>9.2094459533691406</v>
       </c>
       <c r="G9" s="1">
-        <v>2.1121630668640137</v>
+        <v>9.2182064056396484</v>
       </c>
       <c r="H9" s="1">
-        <v>2.1029939651489258</v>
-      </c>
+        <v>9.2216501235961914</v>
+      </c>
+      <c r="I9" s="1"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>21.829973220825195</v>
+        <v>15.533368110656738</v>
       </c>
       <c r="C10" s="1">
-        <v>21.649463653564453</v>
+        <v>15.299148559570313</v>
       </c>
       <c r="D10" s="1">
-        <v>21.448871612548828</v>
+        <v>15.149826049804688</v>
       </c>
       <c r="E10" s="1">
-        <v>21.175046920776367</v>
+        <v>15.119749069213867</v>
       </c>
       <c r="F10" s="1">
-        <v>20.949491500854492</v>
+        <v>15.110164642333984</v>
       </c>
       <c r="G10" s="1">
-        <v>20.799098968505859</v>
+        <v>15.08366870880127</v>
       </c>
       <c r="H10" s="1">
-        <v>20.726394653320313</v>
-      </c>
+        <v>15.032883644104004</v>
+      </c>
+      <c r="I10" s="1"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>18.786640167236328</v>
+        <v>12.028664588928223</v>
       </c>
       <c r="C11" s="1">
-        <v>18.659990310668945</v>
+        <v>11.827012062072754</v>
       </c>
       <c r="D11" s="1">
-        <v>18.494180679321289</v>
+        <v>11.675241470336914</v>
       </c>
       <c r="E11" s="1">
-        <v>18.266914367675781</v>
+        <v>11.643193244934082</v>
       </c>
       <c r="F11" s="1">
-        <v>18.096242904663086</v>
+        <v>11.634785652160645</v>
       </c>
       <c r="G11" s="1">
-        <v>17.997442245483398</v>
+        <v>11.60053825378418</v>
       </c>
       <c r="H11" s="1">
-        <v>17.940835952758789</v>
-      </c>
+        <v>11.550046920776367</v>
+      </c>
+      <c r="I11" s="1"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>11.753081321716309</v>
+        <v>5.3127474784851074</v>
       </c>
       <c r="C12" s="1">
-        <v>11.663716316223145</v>
+        <v>5.9354662895202637</v>
       </c>
       <c r="D12" s="1">
-        <v>11.548404693603516</v>
+        <v>6.6487612724304199</v>
       </c>
       <c r="E12" s="1">
-        <v>11.393607139587402</v>
+        <v>7.7201461791992188</v>
       </c>
       <c r="F12" s="1">
-        <v>11.266033172607422</v>
+        <v>8.5372905731201172</v>
       </c>
       <c r="G12" s="1">
-        <v>11.186065673828125</v>
+        <v>9.0723123550415039</v>
       </c>
       <c r="H12" s="1">
-        <v>11.145540237426758</v>
-      </c>
+        <v>9.3425521850585938</v>
+      </c>
+      <c r="I12" s="1"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>2.373673677444458</v>
+        <v>4.385136604309082</v>
       </c>
       <c r="C13" s="1">
-        <v>2.3585808277130127</v>
+        <v>4.8783597946166992</v>
       </c>
       <c r="D13" s="1">
-        <v>2.3385131359100342</v>
+        <v>5.4485483169555664</v>
       </c>
       <c r="E13" s="1">
-        <v>2.3175194263458252</v>
+        <v>6.3397550582885742</v>
       </c>
       <c r="F13" s="1">
-        <v>2.3024177551269531</v>
+        <v>6.9981412887573242</v>
       </c>
       <c r="G13" s="1">
-        <v>2.2910037040710449</v>
+        <v>7.4123706817626953</v>
       </c>
       <c r="H13" s="1">
-        <v>2.2844910621643066</v>
-      </c>
+        <v>7.6246099472045898</v>
+      </c>
+      <c r="I13" s="1"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>12.506346702575684</v>
+        <v>17.206083297729492</v>
       </c>
       <c r="C14" s="1">
-        <v>12.433952331542969</v>
+        <v>17.7904052734375</v>
       </c>
       <c r="D14" s="1">
-        <v>12.348419189453125</v>
+        <v>18.486202239990234</v>
       </c>
       <c r="E14" s="1">
-        <v>12.227241516113281</v>
+        <v>19.427421569824219</v>
       </c>
       <c r="F14" s="1">
-        <v>12.130745887756348</v>
+        <v>20.200677871704102</v>
       </c>
       <c r="G14" s="1">
-        <v>12.07868480682373</v>
+        <v>20.673070907592773</v>
       </c>
       <c r="H14" s="1">
-        <v>12.046497344970703</v>
-      </c>
+        <v>20.925247192382813</v>
+      </c>
+      <c r="I14" s="1"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>12.40440845489502</v>
+        <v>2.1980595588684082</v>
       </c>
       <c r="C15" s="1">
-        <v>12.326560974121094</v>
+        <v>2.1871206760406494</v>
       </c>
       <c r="D15" s="1">
-        <v>12.241860389709473</v>
+        <v>2.1753609180450439</v>
       </c>
       <c r="E15" s="1">
-        <v>12.138484001159668</v>
+        <v>2.1508204936981201</v>
       </c>
       <c r="F15" s="1">
-        <v>12.028786659240723</v>
+        <v>2.1286287307739258</v>
       </c>
       <c r="G15" s="1">
-        <v>11.966737747192383</v>
+        <v>2.1121630668640137</v>
       </c>
       <c r="H15" s="1">
-        <v>11.929265022277832</v>
-      </c>
+        <v>2.1029939651489258</v>
+      </c>
+      <c r="I15" s="1"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>0.94173288345336914</v>
+        <v>21.829973220825195</v>
       </c>
       <c r="C16" s="1">
-        <v>0.9302094578742981</v>
+        <v>21.649463653564453</v>
       </c>
       <c r="D16" s="1">
-        <v>0.91818696260452271</v>
+        <v>21.448871612548828</v>
       </c>
       <c r="E16" s="1">
-        <v>0.90294367074966431</v>
+        <v>21.175046920776367</v>
       </c>
       <c r="F16" s="1">
-        <v>0.89697593450546265</v>
+        <v>20.949491500854492</v>
       </c>
       <c r="G16" s="1">
-        <v>0.89573168754577637</v>
+        <v>20.799098968505859</v>
       </c>
       <c r="H16" s="1">
-        <v>0.89873361587524414</v>
-      </c>
+        <v>20.726394653320313</v>
+      </c>
+      <c r="I16" s="1"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>24.028032302856445</v>
+        <v>18.786640167236328</v>
       </c>
       <c r="C17" s="1">
-        <v>23.836584091186523</v>
+        <v>18.659990310668945</v>
       </c>
       <c r="D17" s="1">
-        <v>23.624233245849609</v>
+        <v>18.494180679321289</v>
       </c>
       <c r="E17" s="1">
-        <v>23.32586669921875</v>
+        <v>18.266914367675781</v>
       </c>
       <c r="F17" s="1">
-        <v>23.078119277954102</v>
+        <v>18.096242904663086</v>
       </c>
       <c r="G17" s="1">
-        <v>22.911262512207031</v>
+        <v>17.997442245483398</v>
       </c>
       <c r="H17" s="1">
-        <v>22.829387664794922</v>
-      </c>
+        <v>17.940835952758789</v>
+      </c>
+      <c r="I17" s="1"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>30.539722442626953</v>
+        <v>11.753081321716309</v>
       </c>
       <c r="C18" s="1">
-        <v>30.323707580566406</v>
+        <v>11.663716316223145</v>
       </c>
       <c r="D18" s="1">
-        <v>30.042585372924805</v>
+        <v>11.548404693603516</v>
       </c>
       <c r="E18" s="1">
-        <v>29.660520553588867</v>
+        <v>11.393607139587402</v>
       </c>
       <c r="F18" s="1">
-        <v>29.362276077270508</v>
+        <v>11.266033172607422</v>
       </c>
       <c r="G18" s="1">
-        <v>29.183507919311523</v>
+        <v>11.186065673828125</v>
       </c>
       <c r="H18" s="1">
-        <v>29.086376190185547</v>
-      </c>
+        <v>11.145540237426758</v>
+      </c>
+      <c r="I18" s="1"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>14.880021095275879</v>
+        <v>2.373673677444458</v>
       </c>
       <c r="C19" s="1">
-        <v>14.792532920837402</v>
+        <v>2.3585808277130127</v>
       </c>
       <c r="D19" s="1">
-        <v>14.686932563781738</v>
+        <v>2.3385131359100342</v>
       </c>
       <c r="E19" s="1">
-        <v>14.544760704040527</v>
+        <v>2.3175194263458252</v>
       </c>
       <c r="F19" s="1">
-        <v>14.433163642883301</v>
+        <v>2.3024177551269531</v>
       </c>
       <c r="G19" s="1">
-        <v>14.369688034057617</v>
+        <v>2.2910037040710449</v>
       </c>
       <c r="H19" s="1">
-        <v>14.330988883972168</v>
-      </c>
+        <v>2.2844910621643066</v>
+      </c>
+      <c r="I19" s="1"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>13.346141815185547</v>
+        <v>12.506346702575684</v>
       </c>
       <c r="C20" s="1">
-        <v>13.256770133972168</v>
+        <v>12.433952331542969</v>
       </c>
       <c r="D20" s="1">
-        <v>13.16004753112793</v>
+        <v>12.348419189453125</v>
       </c>
       <c r="E20" s="1">
-        <v>13.041427612304688</v>
+        <v>12.227241516113281</v>
       </c>
       <c r="F20" s="1">
-        <v>12.925762176513672</v>
+        <v>12.130745887756348</v>
       </c>
       <c r="G20" s="1">
-        <v>12.862469673156738</v>
+        <v>12.07868480682373</v>
       </c>
       <c r="H20" s="1">
-        <v>12.827999114990234</v>
-      </c>
+        <v>12.046497344970703</v>
+      </c>
+      <c r="I20" s="1"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="1"/>
+      <c r="B21" s="1">
+        <v>12.40440845489502</v>
+      </c>
       <c r="C21" s="1">
-        <v>50.865180969238281</v>
+        <v>12.326560974121094</v>
       </c>
       <c r="D21" s="1">
-        <v>52.805267333984375</v>
+        <v>12.241860389709473</v>
       </c>
       <c r="E21" s="1">
-        <v>53.657325744628906</v>
+        <v>12.138484001159668</v>
       </c>
       <c r="F21" s="1">
-        <v>55.877994537353516</v>
+        <v>12.028786659240723</v>
       </c>
       <c r="G21" s="1">
-        <v>59.601699829101563</v>
+        <v>11.966737747192383</v>
       </c>
       <c r="H21" s="1">
-        <v>68.188255310058594</v>
-      </c>
+        <v>11.929265022277832</v>
+      </c>
+      <c r="I21" s="1"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
         <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>57.224380493164063</v>
+        <v>0.94173288345336914</v>
       </c>
       <c r="C22" s="1">
-        <v>94.518028259277344</v>
+        <v>0.9302094578742981</v>
       </c>
       <c r="D22" s="1">
-        <v>124.73121643066406</v>
+        <v>0.91818696260452271</v>
       </c>
       <c r="E22" s="1">
-        <v>111.63810729980469</v>
+        <v>0.90294367074966431</v>
       </c>
       <c r="F22" s="1">
-        <v>66.280105590820313</v>
+        <v>0.89697593450546265</v>
       </c>
       <c r="G22" s="1">
-        <v>75.465164184570313</v>
+        <v>0.89573168754577637</v>
       </c>
       <c r="H22" s="1">
-        <v>107.39522552490234</v>
-      </c>
+        <v>0.89873361587524414</v>
+      </c>
+      <c r="I22" s="1"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
+      <c r="B23" s="1">
+        <v>24.028032302856445</v>
+      </c>
+      <c r="C23" s="1">
+        <v>23.836584091186523</v>
+      </c>
+      <c r="D23" s="1">
+        <v>23.624233245849609</v>
+      </c>
+      <c r="E23" s="1">
+        <v>23.32586669921875</v>
+      </c>
       <c r="F23" s="1">
-        <v>20.555309295654297</v>
+        <v>23.078119277954102</v>
       </c>
       <c r="G23" s="1">
-        <v>19.22590446472168</v>
+        <v>22.911262512207031</v>
       </c>
       <c r="H23" s="1">
-        <v>16.138092041015625</v>
-      </c>
+        <v>22.829387664794922</v>
+      </c>
+      <c r="I23" s="1"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
+      <c r="B24" s="1">
+        <v>30.539722442626953</v>
+      </c>
+      <c r="C24" s="1">
+        <v>30.323707580566406</v>
+      </c>
+      <c r="D24" s="1">
+        <v>30.042585372924805</v>
+      </c>
       <c r="E24" s="1">
+        <v>29.660520553588867</v>
+      </c>
+      <c r="F24" s="1">
+        <v>29.362276077270508</v>
+      </c>
+      <c r="G24" s="1">
+        <v>29.183507919311523</v>
+      </c>
+      <c r="H24" s="1">
+        <v>29.086376190185547</v>
+      </c>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1">
+        <v>14.880021095275879</v>
+      </c>
+      <c r="C25" s="1">
+        <v>14.792532920837402</v>
+      </c>
+      <c r="D25" s="1">
+        <v>14.686932563781738</v>
+      </c>
+      <c r="E25" s="1">
+        <v>14.544760704040527</v>
+      </c>
+      <c r="F25" s="1">
+        <v>14.433163642883301</v>
+      </c>
+      <c r="G25" s="1">
+        <v>14.369688034057617</v>
+      </c>
+      <c r="H25" s="1">
+        <v>14.330988883972168</v>
+      </c>
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1">
+        <v>13.346141815185547</v>
+      </c>
+      <c r="C26" s="1">
+        <v>13.256770133972168</v>
+      </c>
+      <c r="D26" s="1">
+        <v>13.16004753112793</v>
+      </c>
+      <c r="E26" s="1">
+        <v>13.041427612304688</v>
+      </c>
+      <c r="F26" s="1">
+        <v>12.925762176513672</v>
+      </c>
+      <c r="G26" s="1">
+        <v>12.862469673156738</v>
+      </c>
+      <c r="H26" s="1">
+        <v>12.827999114990234</v>
+      </c>
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1">
+        <v>16.500095367431641</v>
+      </c>
+      <c r="F27" s="1">
+        <v>17.407289505004883</v>
+      </c>
+      <c r="G27" s="1">
+        <v>20.47453498840332</v>
+      </c>
+      <c r="H27" s="1">
+        <v>22.002086639404297</v>
+      </c>
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1">
+        <v>50.865180969238281</v>
+      </c>
+      <c r="D28" s="1">
+        <v>52.805267333984375</v>
+      </c>
+      <c r="E28" s="1">
+        <v>53.657325744628906</v>
+      </c>
+      <c r="F28" s="1">
+        <v>55.877994537353516</v>
+      </c>
+      <c r="G28" s="1">
+        <v>59.601699829101563</v>
+      </c>
+      <c r="H28" s="1">
+        <v>68.188255310058594</v>
+      </c>
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1">
+        <v>57.224380493164063</v>
+      </c>
+      <c r="C29" s="1">
+        <v>94.518028259277344</v>
+      </c>
+      <c r="D29" s="1">
+        <v>124.73121643066406</v>
+      </c>
+      <c r="E29" s="1">
+        <v>111.63810729980469</v>
+      </c>
+      <c r="F29" s="1">
+        <v>66.280105590820313</v>
+      </c>
+      <c r="G29" s="1">
+        <v>75.465164184570313</v>
+      </c>
+      <c r="H29" s="1">
+        <v>107.39522552490234</v>
+      </c>
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1">
+        <v>20.555309295654297</v>
+      </c>
+      <c r="G30" s="1">
+        <v>19.22590446472168</v>
+      </c>
+      <c r="H30" s="1">
+        <v>16.138092041015625</v>
+      </c>
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1">
         <v>22334.931640625</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F31" s="1">
         <v>28291.578125</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G31" s="1">
         <v>41637.09375</v>
       </c>
-      <c r="H24" s="1">
+      <c r="H31" s="1">
         <v>43642.6015625</v>
       </c>
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1">
+        <v>8.1480731964111328</v>
+      </c>
+      <c r="C32" s="1">
+        <v>8.1905517578125</v>
+      </c>
+      <c r="D32" s="1">
+        <v>8.2788572311401367</v>
+      </c>
+      <c r="E32" s="1">
+        <v>8.2945852279663086</v>
+      </c>
+      <c r="F32" s="1">
+        <v>8.3554105758666992</v>
+      </c>
+      <c r="G32" s="1">
+        <v>8.3788919448852539</v>
+      </c>
+      <c r="H32" s="1">
+        <v>8.3964433670043945</v>
+      </c>
+      <c r="I32" s="1"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1">
+        <v>3.2419648170471191</v>
+      </c>
+      <c r="C33" s="1">
+        <v>3.2861056327819824</v>
+      </c>
+      <c r="D33" s="1">
+        <v>3.3110594749450684</v>
+      </c>
+      <c r="E33" s="1">
+        <v>3.3349504470825195</v>
+      </c>
+      <c r="F33" s="1">
+        <v>3.3697571754455566</v>
+      </c>
+      <c r="G33" s="1">
+        <v>3.3941526412963867</v>
+      </c>
+      <c r="H33" s="1">
+        <v>3.4082777500152588</v>
+      </c>
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1">
+        <v>3.8479926586151123</v>
+      </c>
+      <c r="C34" s="1">
+        <v>3.8496239185333252</v>
+      </c>
+      <c r="D34" s="1">
+        <v>3.8484034538269043</v>
+      </c>
+      <c r="E34" s="1">
+        <v>3.8681824207305908</v>
+      </c>
+      <c r="F34" s="1">
+        <v>3.8890178203582764</v>
+      </c>
+      <c r="G34" s="1">
+        <v>4.0015382766723633</v>
+      </c>
+      <c r="H34" s="1">
+        <v>4.0496735572814941</v>
+      </c>
+      <c r="I34" s="1"/>
     </row>
   </sheetData>
 </worksheet>

--- a/results/initial_descriptives/combined/sumtable_countymeans.xlsx
+++ b/results/initial_descriptives/combined/sumtable_countymeans.xlsx
@@ -873,16 +873,16 @@
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1">
-        <v>16.500095367431641</v>
+        <v>22.440128326416016</v>
       </c>
       <c r="F27" s="1">
-        <v>17.407289505004883</v>
+        <v>21.062820434570313</v>
       </c>
       <c r="G27" s="1">
-        <v>20.47453498840332</v>
+        <v>22.436120986938477</v>
       </c>
       <c r="H27" s="1">
-        <v>22.002086639404297</v>
+        <v>20.461940765380859</v>
       </c>
       <c r="I27" s="1"/>
     </row>
@@ -892,22 +892,22 @@
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1">
-        <v>50.865180969238281</v>
+        <v>97.661148071289063</v>
       </c>
       <c r="D28" s="1">
-        <v>52.805267333984375</v>
+        <v>81.848159790039063</v>
       </c>
       <c r="E28" s="1">
-        <v>53.657325744628906</v>
+        <v>72.973960876464844</v>
       </c>
       <c r="F28" s="1">
-        <v>55.877994537353516</v>
+        <v>67.612373352050781</v>
       </c>
       <c r="G28" s="1">
-        <v>59.601699829101563</v>
+        <v>62.581783294677734</v>
       </c>
       <c r="H28" s="1">
-        <v>68.188255310058594</v>
+        <v>63.415077209472656</v>
       </c>
       <c r="I28" s="1"/>
     </row>

--- a/results/initial_descriptives/combined/sumtable_countymeans.xlsx
+++ b/results/initial_descriptives/combined/sumtable_countymeans.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>year</t>
   </si>
@@ -106,6 +106,9 @@
   </si>
   <si>
     <t>urban_nr</t>
+  </si>
+  <si>
+    <t>range_nr</t>
   </si>
   <si>
     <t>Federalland_pcnt2</t>
@@ -160,7 +163,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:H35"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -188,7 +191,6 @@
       <c r="H1" s="1">
         <v>2012</v>
       </c>
-      <c r="I1" s="1"/>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -215,7 +217,6 @@
       <c r="H2" s="1">
         <v>28.15052604675293</v>
       </c>
-      <c r="I2" s="1"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -242,7 +243,6 @@
       <c r="H3" s="1">
         <v>25.096437454223633</v>
       </c>
-      <c r="I3" s="1"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -269,7 +269,6 @@
       <c r="H4" s="1">
         <v>1.4011971950531006</v>
       </c>
-      <c r="I4" s="1"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -296,7 +295,6 @@
       <c r="H5" s="1">
         <v>1.2726571559906006</v>
       </c>
-      <c r="I5" s="1"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -323,7 +321,6 @@
       <c r="H6" s="1">
         <v>35.320003509521484</v>
       </c>
-      <c r="I6" s="1"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -350,7 +347,6 @@
       <c r="H7" s="1">
         <v>29.380203247070313</v>
       </c>
-      <c r="I7" s="1"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -377,7 +373,6 @@
       <c r="H8" s="1">
         <v>10.687778472900391</v>
       </c>
-      <c r="I8" s="1"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -404,7 +399,6 @@
       <c r="H9" s="1">
         <v>9.2216501235961914</v>
       </c>
-      <c r="I9" s="1"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -431,7 +425,6 @@
       <c r="H10" s="1">
         <v>15.032883644104004</v>
       </c>
-      <c r="I10" s="1"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -458,7 +451,6 @@
       <c r="H11" s="1">
         <v>11.550046920776367</v>
       </c>
-      <c r="I11" s="1"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -485,7 +477,6 @@
       <c r="H12" s="1">
         <v>9.3425521850585938</v>
       </c>
-      <c r="I12" s="1"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -512,7 +503,6 @@
       <c r="H13" s="1">
         <v>7.6246099472045898</v>
       </c>
-      <c r="I13" s="1"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -539,7 +529,6 @@
       <c r="H14" s="1">
         <v>20.925247192382813</v>
       </c>
-      <c r="I14" s="1"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -566,7 +555,6 @@
       <c r="H15" s="1">
         <v>2.1029939651489258</v>
       </c>
-      <c r="I15" s="1"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -593,7 +581,6 @@
       <c r="H16" s="1">
         <v>20.726394653320313</v>
       </c>
-      <c r="I16" s="1"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -620,7 +607,6 @@
       <c r="H17" s="1">
         <v>17.940835952758789</v>
       </c>
-      <c r="I17" s="1"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -647,7 +633,6 @@
       <c r="H18" s="1">
         <v>11.145540237426758</v>
       </c>
-      <c r="I18" s="1"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -674,7 +659,6 @@
       <c r="H19" s="1">
         <v>2.2844910621643066</v>
       </c>
-      <c r="I19" s="1"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -701,7 +685,6 @@
       <c r="H20" s="1">
         <v>12.046497344970703</v>
       </c>
-      <c r="I20" s="1"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -728,7 +711,6 @@
       <c r="H21" s="1">
         <v>11.929265022277832</v>
       </c>
-      <c r="I21" s="1"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -755,7 +737,6 @@
       <c r="H22" s="1">
         <v>0.89873361587524414</v>
       </c>
-      <c r="I22" s="1"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -782,7 +763,6 @@
       <c r="H23" s="1">
         <v>22.829387664794922</v>
       </c>
-      <c r="I23" s="1"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -809,7 +789,6 @@
       <c r="H24" s="1">
         <v>29.086376190185547</v>
       </c>
-      <c r="I24" s="1"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -836,7 +815,6 @@
       <c r="H25" s="1">
         <v>14.330988883972168</v>
       </c>
-      <c r="I25" s="1"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
@@ -863,7 +841,6 @@
       <c r="H26" s="1">
         <v>12.827999114990234</v>
       </c>
-      <c r="I26" s="1"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
@@ -873,18 +850,17 @@
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1">
-        <v>22.440128326416016</v>
+        <v>22.451137542724609</v>
       </c>
       <c r="F27" s="1">
-        <v>21.062820434570313</v>
+        <v>21.094793319702148</v>
       </c>
       <c r="G27" s="1">
-        <v>22.436120986938477</v>
+        <v>22.477123260498047</v>
       </c>
       <c r="H27" s="1">
-        <v>20.461940765380859</v>
-      </c>
-      <c r="I27" s="1"/>
+        <v>20.875175476074219</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
@@ -904,12 +880,11 @@
         <v>67.612373352050781</v>
       </c>
       <c r="G28" s="1">
-        <v>62.581783294677734</v>
+        <v>62.593730926513672</v>
       </c>
       <c r="H28" s="1">
-        <v>63.415077209472656</v>
-      </c>
-      <c r="I28" s="1"/>
+        <v>64.778839111328125</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
@@ -936,7 +911,6 @@
       <c r="H29" s="1">
         <v>107.39522552490234</v>
       </c>
-      <c r="I29" s="1"/>
     </row>
     <row r="30">
       <c r="A30" t="s">
@@ -947,15 +921,14 @@
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1">
-        <v>20.555309295654297</v>
+        <v>20.544464111328125</v>
       </c>
       <c r="G30" s="1">
-        <v>19.22590446472168</v>
+        <v>19.215654373168945</v>
       </c>
       <c r="H30" s="1">
-        <v>16.138092041015625</v>
-      </c>
-      <c r="I30" s="1"/>
+        <v>16.132402420043945</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
@@ -965,99 +938,115 @@
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1">
-        <v>22334.931640625</v>
+        <v>22257.21875</v>
       </c>
       <c r="F31" s="1">
-        <v>28291.578125</v>
+        <v>28130.1640625</v>
       </c>
       <c r="G31" s="1">
-        <v>41637.09375</v>
+        <v>41444.46484375</v>
       </c>
       <c r="H31" s="1">
-        <v>43642.6015625</v>
-      </c>
-      <c r="I31" s="1"/>
+        <v>43307.26953125</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="1">
-        <v>8.1480731964111328</v>
-      </c>
-      <c r="C32" s="1">
-        <v>8.1905517578125</v>
-      </c>
-      <c r="D32" s="1">
-        <v>8.2788572311401367</v>
-      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
       <c r="E32" s="1">
-        <v>8.2945852279663086</v>
+        <v>22.451137542724609</v>
       </c>
       <c r="F32" s="1">
-        <v>8.3554105758666992</v>
+        <v>21.094793319702148</v>
       </c>
       <c r="G32" s="1">
-        <v>8.3788919448852539</v>
+        <v>22.477123260498047</v>
       </c>
       <c r="H32" s="1">
-        <v>8.3964433670043945</v>
-      </c>
-      <c r="I32" s="1"/>
+        <v>20.875175476074219</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
         <v>32</v>
       </c>
       <c r="B33" s="1">
-        <v>3.2419648170471191</v>
+        <v>8.1480731964111328</v>
       </c>
       <c r="C33" s="1">
-        <v>3.2861056327819824</v>
+        <v>8.1905517578125</v>
       </c>
       <c r="D33" s="1">
-        <v>3.3110594749450684</v>
+        <v>8.2788572311401367</v>
       </c>
       <c r="E33" s="1">
-        <v>3.3349504470825195</v>
+        <v>8.2945852279663086</v>
       </c>
       <c r="F33" s="1">
-        <v>3.3697571754455566</v>
+        <v>8.3554105758666992</v>
       </c>
       <c r="G33" s="1">
-        <v>3.3941526412963867</v>
+        <v>8.3788919448852539</v>
       </c>
       <c r="H33" s="1">
-        <v>3.4082777500152588</v>
-      </c>
-      <c r="I33" s="1"/>
+        <v>8.3964433670043945</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
         <v>33</v>
       </c>
       <c r="B34" s="1">
+        <v>3.2419648170471191</v>
+      </c>
+      <c r="C34" s="1">
+        <v>3.2861056327819824</v>
+      </c>
+      <c r="D34" s="1">
+        <v>3.3110594749450684</v>
+      </c>
+      <c r="E34" s="1">
+        <v>3.3349504470825195</v>
+      </c>
+      <c r="F34" s="1">
+        <v>3.3697571754455566</v>
+      </c>
+      <c r="G34" s="1">
+        <v>3.3941526412963867</v>
+      </c>
+      <c r="H34" s="1">
+        <v>3.4082777500152588</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1">
         <v>3.8479926586151123</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C35" s="1">
         <v>3.8496239185333252</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D35" s="1">
         <v>3.8484034538269043</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E35" s="1">
         <v>3.8681824207305908</v>
       </c>
-      <c r="F34" s="1">
+      <c r="F35" s="1">
         <v>3.8890178203582764</v>
       </c>
-      <c r="G34" s="1">
+      <c r="G35" s="1">
         <v>4.0015382766723633</v>
       </c>
-      <c r="H34" s="1">
+      <c r="H35" s="1">
         <v>4.0496735572814941</v>
       </c>
-      <c r="I34" s="1"/>
     </row>
   </sheetData>
 </worksheet>

--- a/results/initial_descriptives/combined/sumtable_countymeans.xlsx
+++ b/results/initial_descriptives/combined/sumtable_countymeans.xlsx
@@ -163,7 +163,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:I35"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -191,6 +191,9 @@
       <c r="H1" s="1">
         <v>2012</v>
       </c>
+      <c r="I1" s="1">
+        <v>2015</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -217,6 +220,9 @@
       <c r="H2" s="1">
         <v>28.15052604675293</v>
       </c>
+      <c r="I2" s="1">
+        <v>28.479772567749023</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -243,6 +249,9 @@
       <c r="H3" s="1">
         <v>25.096437454223633</v>
       </c>
+      <c r="I3" s="1">
+        <v>25.384542465209961</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -269,6 +278,9 @@
       <c r="H4" s="1">
         <v>1.4011971950531006</v>
       </c>
+      <c r="I4" s="1">
+        <v>1.0357397794723511</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -295,6 +307,9 @@
       <c r="H5" s="1">
         <v>1.2726571559906006</v>
       </c>
+      <c r="I5" s="1">
+        <v>0.94090276956558228</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -321,6 +336,9 @@
       <c r="H6" s="1">
         <v>35.320003509521484</v>
       </c>
+      <c r="I6" s="1">
+        <v>35.414726257324219</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -347,6 +365,9 @@
       <c r="H7" s="1">
         <v>29.380203247070313</v>
       </c>
+      <c r="I7" s="1">
+        <v>29.453279495239258</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -373,6 +394,9 @@
       <c r="H8" s="1">
         <v>10.687778472900391</v>
       </c>
+      <c r="I8" s="1">
+        <v>10.538521766662598</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -399,6 +423,9 @@
       <c r="H9" s="1">
         <v>9.2216501235961914</v>
       </c>
+      <c r="I9" s="1">
+        <v>9.088623046875</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -425,6 +452,9 @@
       <c r="H10" s="1">
         <v>15.032883644104004</v>
       </c>
+      <c r="I10" s="1">
+        <v>14.993505477905273</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -451,6 +481,9 @@
       <c r="H11" s="1">
         <v>11.550046920776367</v>
       </c>
+      <c r="I11" s="1">
+        <v>11.510863304138184</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -477,6 +510,9 @@
       <c r="H12" s="1">
         <v>9.3425521850585938</v>
       </c>
+      <c r="I12" s="1">
+        <v>9.4726734161376953</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -503,31 +539,37 @@
       <c r="H13" s="1">
         <v>7.6246099472045898</v>
       </c>
+      <c r="I13" s="1">
+        <v>7.7272524833679199</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>17.206083297729492</v>
+        <v>16.91871452331543</v>
       </c>
       <c r="C14" s="1">
-        <v>17.7904052734375</v>
+        <v>16.91871452331543</v>
       </c>
       <c r="D14" s="1">
-        <v>18.486202239990234</v>
+        <v>16.91871452331543</v>
       </c>
       <c r="E14" s="1">
-        <v>19.427421569824219</v>
+        <v>16.91871452331543</v>
       </c>
       <c r="F14" s="1">
-        <v>20.200677871704102</v>
+        <v>16.91871452331543</v>
       </c>
       <c r="G14" s="1">
-        <v>20.673070907592773</v>
+        <v>16.91871452331543</v>
       </c>
       <c r="H14" s="1">
-        <v>20.925247192382813</v>
+        <v>16.91871452331543</v>
+      </c>
+      <c r="I14" s="1">
+        <v>16.91871452331543</v>
       </c>
     </row>
     <row r="15">
@@ -535,25 +577,28 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>2.1980595588684082</v>
+        <v>2.2051389217376709</v>
       </c>
       <c r="C15" s="1">
-        <v>2.1871206760406494</v>
+        <v>2.2049911022186279</v>
       </c>
       <c r="D15" s="1">
-        <v>2.1753609180450439</v>
+        <v>2.2061336040496826</v>
       </c>
       <c r="E15" s="1">
-        <v>2.1508204936981201</v>
+        <v>2.1997659206390381</v>
       </c>
       <c r="F15" s="1">
-        <v>2.1286287307739258</v>
+        <v>2.1909668445587158</v>
       </c>
       <c r="G15" s="1">
-        <v>2.1121630668640137</v>
+        <v>2.1853375434875488</v>
       </c>
       <c r="H15" s="1">
-        <v>2.1029939651489258</v>
+        <v>2.1803452968597412</v>
+      </c>
+      <c r="I15" s="1">
+        <v>2.1791555881500244</v>
       </c>
     </row>
     <row r="16">
@@ -561,25 +606,28 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>21.829973220825195</v>
+        <v>21.881288528442383</v>
       </c>
       <c r="C16" s="1">
-        <v>21.649463653564453</v>
+        <v>21.865360260009766</v>
       </c>
       <c r="D16" s="1">
-        <v>21.448871612548828</v>
+        <v>21.846712112426758</v>
       </c>
       <c r="E16" s="1">
-        <v>21.175046920776367</v>
+        <v>21.840641021728516</v>
       </c>
       <c r="F16" s="1">
-        <v>20.949491500854492</v>
+        <v>21.825418472290039</v>
       </c>
       <c r="G16" s="1">
-        <v>20.799098968505859</v>
+        <v>21.806716918945313</v>
       </c>
       <c r="H16" s="1">
-        <v>20.726394653320313</v>
+        <v>21.805488586425781</v>
+      </c>
+      <c r="I16" s="1">
+        <v>21.804689407348633</v>
       </c>
     </row>
     <row r="17">
@@ -587,25 +635,28 @@
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>18.786640167236328</v>
+        <v>18.838916778564453</v>
       </c>
       <c r="C17" s="1">
-        <v>18.659990310668945</v>
+        <v>18.850732803344727</v>
       </c>
       <c r="D17" s="1">
-        <v>18.494180679321289</v>
+        <v>18.862716674804688</v>
       </c>
       <c r="E17" s="1">
-        <v>18.266914367675781</v>
+        <v>18.876714706420898</v>
       </c>
       <c r="F17" s="1">
-        <v>18.096242904663086</v>
+        <v>18.888875961303711</v>
       </c>
       <c r="G17" s="1">
-        <v>17.997442245483398</v>
+        <v>18.904705047607422</v>
       </c>
       <c r="H17" s="1">
-        <v>17.940835952758789</v>
+        <v>18.908233642578125</v>
+      </c>
+      <c r="I17" s="1">
+        <v>18.909276962280273</v>
       </c>
     </row>
     <row r="18">
@@ -613,25 +664,28 @@
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>11.753081321716309</v>
+        <v>11.785534858703613</v>
       </c>
       <c r="C18" s="1">
-        <v>11.663716316223145</v>
+        <v>11.789078712463379</v>
       </c>
       <c r="D18" s="1">
-        <v>11.548404693603516</v>
+        <v>11.793749809265137</v>
       </c>
       <c r="E18" s="1">
-        <v>11.393607139587402</v>
+        <v>11.792673110961914</v>
       </c>
       <c r="F18" s="1">
-        <v>11.266033172607422</v>
+        <v>11.792230606079102</v>
       </c>
       <c r="G18" s="1">
-        <v>11.186065673828125</v>
+        <v>11.791597366333008</v>
       </c>
       <c r="H18" s="1">
-        <v>11.145540237426758</v>
+        <v>11.794395446777344</v>
+      </c>
+      <c r="I18" s="1">
+        <v>11.796778678894043</v>
       </c>
     </row>
     <row r="19">
@@ -639,25 +693,28 @@
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>2.373673677444458</v>
+        <v>2.3810474872589111</v>
       </c>
       <c r="C19" s="1">
-        <v>2.3585808277130127</v>
+        <v>2.3810431957244873</v>
       </c>
       <c r="D19" s="1">
-        <v>2.3385131359100342</v>
+        <v>2.3811821937561035</v>
       </c>
       <c r="E19" s="1">
-        <v>2.3175194263458252</v>
+        <v>2.3813536167144775</v>
       </c>
       <c r="F19" s="1">
-        <v>2.3024177551269531</v>
+        <v>2.3815581798553467</v>
       </c>
       <c r="G19" s="1">
-        <v>2.2910037040710449</v>
+        <v>2.3813114166259766</v>
       </c>
       <c r="H19" s="1">
-        <v>2.2844910621643066</v>
+        <v>2.3813951015472412</v>
+      </c>
+      <c r="I19" s="1">
+        <v>2.3814046382904053</v>
       </c>
     </row>
     <row r="20">
@@ -665,25 +722,28 @@
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>12.506346702575684</v>
+        <v>12.550850868225098</v>
       </c>
       <c r="C20" s="1">
-        <v>12.433952331542969</v>
+        <v>12.552334785461426</v>
       </c>
       <c r="D20" s="1">
-        <v>12.348419189453125</v>
+        <v>12.553961753845215</v>
       </c>
       <c r="E20" s="1">
-        <v>12.227241516113281</v>
+        <v>12.551446914672852</v>
       </c>
       <c r="F20" s="1">
-        <v>12.130745887756348</v>
+        <v>12.560141563415527</v>
       </c>
       <c r="G20" s="1">
-        <v>12.07868480682373</v>
+        <v>12.568150520324707</v>
       </c>
       <c r="H20" s="1">
-        <v>12.046497344970703</v>
+        <v>12.567581176757813</v>
+      </c>
+      <c r="I20" s="1">
+        <v>12.565120697021484</v>
       </c>
     </row>
     <row r="21">
@@ -691,25 +751,28 @@
         <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>12.40440845489502</v>
+        <v>12.473625183105469</v>
       </c>
       <c r="C21" s="1">
-        <v>12.326560974121094</v>
+        <v>12.472444534301758</v>
       </c>
       <c r="D21" s="1">
-        <v>12.241860389709473</v>
+        <v>12.471128463745117</v>
       </c>
       <c r="E21" s="1">
-        <v>12.138484001159668</v>
+        <v>12.472867012023926</v>
       </c>
       <c r="F21" s="1">
-        <v>12.028786659240723</v>
+        <v>12.476411819458008</v>
       </c>
       <c r="G21" s="1">
-        <v>11.966737747192383</v>
+        <v>12.477934837341309</v>
       </c>
       <c r="H21" s="1">
-        <v>11.929265022277832</v>
+        <v>12.478243827819824</v>
+      </c>
+      <c r="I21" s="1">
+        <v>12.479278564453125</v>
       </c>
     </row>
     <row r="22">
@@ -717,25 +780,28 @@
         <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>0.94173288345336914</v>
+        <v>0.96488356590270996</v>
       </c>
       <c r="C22" s="1">
-        <v>0.9302094578742981</v>
+        <v>0.96529960632324219</v>
       </c>
       <c r="D22" s="1">
-        <v>0.91818696260452271</v>
+        <v>0.96570080518722534</v>
       </c>
       <c r="E22" s="1">
-        <v>0.90294367074966431</v>
+        <v>0.96582388877868652</v>
       </c>
       <c r="F22" s="1">
-        <v>0.89697593450546265</v>
+        <v>0.96568220853805542</v>
       </c>
       <c r="G22" s="1">
-        <v>0.89573168754577637</v>
+        <v>0.9655308723449707</v>
       </c>
       <c r="H22" s="1">
-        <v>0.89873361587524414</v>
+        <v>0.96560186147689819</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0.96558243036270142</v>
       </c>
     </row>
     <row r="23">
@@ -743,25 +809,28 @@
         <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>24.028032302856445</v>
+        <v>24.086427688598633</v>
       </c>
       <c r="C23" s="1">
-        <v>23.836584091186523</v>
+        <v>24.070352554321289</v>
       </c>
       <c r="D23" s="1">
-        <v>23.624233245849609</v>
+        <v>24.052845001220703</v>
       </c>
       <c r="E23" s="1">
-        <v>23.32586669921875</v>
+        <v>24.040407180786133</v>
       </c>
       <c r="F23" s="1">
-        <v>23.078119277954102</v>
+        <v>24.016386032104492</v>
       </c>
       <c r="G23" s="1">
-        <v>22.911262512207031</v>
+        <v>23.992055892944336</v>
       </c>
       <c r="H23" s="1">
-        <v>22.829387664794922</v>
+        <v>23.985834121704102</v>
+      </c>
+      <c r="I23" s="1">
+        <v>23.983844757080078</v>
       </c>
     </row>
     <row r="24">
@@ -769,25 +838,28 @@
         <v>23</v>
       </c>
       <c r="B24" s="1">
-        <v>30.539722442626953</v>
+        <v>30.62445068359375</v>
       </c>
       <c r="C24" s="1">
-        <v>30.323707580566406</v>
+        <v>30.639812469482422</v>
       </c>
       <c r="D24" s="1">
-        <v>30.042585372924805</v>
+        <v>30.656467437744141</v>
       </c>
       <c r="E24" s="1">
-        <v>29.660520553588867</v>
+        <v>30.669387817382813</v>
       </c>
       <c r="F24" s="1">
-        <v>29.362276077270508</v>
+        <v>30.681106567382813</v>
       </c>
       <c r="G24" s="1">
-        <v>29.183507919311523</v>
+        <v>30.69630241394043</v>
       </c>
       <c r="H24" s="1">
-        <v>29.086376190185547</v>
+        <v>30.702629089355469</v>
+      </c>
+      <c r="I24" s="1">
+        <v>30.7060546875</v>
       </c>
     </row>
     <row r="25">
@@ -795,25 +867,28 @@
         <v>24</v>
       </c>
       <c r="B25" s="1">
-        <v>14.880021095275879</v>
+        <v>14.93189811706543</v>
       </c>
       <c r="C25" s="1">
-        <v>14.792532920837402</v>
+        <v>14.933378219604492</v>
       </c>
       <c r="D25" s="1">
-        <v>14.686932563781738</v>
+        <v>14.935144424438477</v>
       </c>
       <c r="E25" s="1">
-        <v>14.544760704040527</v>
+        <v>14.932801246643066</v>
       </c>
       <c r="F25" s="1">
-        <v>14.433163642883301</v>
+        <v>14.941699981689453</v>
       </c>
       <c r="G25" s="1">
-        <v>14.369688034057617</v>
+        <v>14.949461936950684</v>
       </c>
       <c r="H25" s="1">
-        <v>14.330988883972168</v>
+        <v>14.948976516723633</v>
+      </c>
+      <c r="I25" s="1">
+        <v>14.946524620056152</v>
       </c>
     </row>
     <row r="26">
@@ -821,25 +896,28 @@
         <v>25</v>
       </c>
       <c r="B26" s="1">
-        <v>13.346141815185547</v>
+        <v>13.438508033752441</v>
       </c>
       <c r="C26" s="1">
-        <v>13.256770133972168</v>
+        <v>13.437744140625</v>
       </c>
       <c r="D26" s="1">
-        <v>13.16004753112793</v>
+        <v>13.436829566955566</v>
       </c>
       <c r="E26" s="1">
-        <v>13.041427612304688</v>
+        <v>13.438690185546875</v>
       </c>
       <c r="F26" s="1">
-        <v>12.925762176513672</v>
+        <v>13.442093849182129</v>
       </c>
       <c r="G26" s="1">
-        <v>12.862469673156738</v>
+        <v>13.443466186523438</v>
       </c>
       <c r="H26" s="1">
-        <v>12.827999114990234</v>
+        <v>13.443845748901367</v>
+      </c>
+      <c r="I26" s="1">
+        <v>13.444860458374023</v>
       </c>
     </row>
     <row r="27">
@@ -861,6 +939,9 @@
       <c r="H27" s="1">
         <v>20.875175476074219</v>
       </c>
+      <c r="I27" s="1">
+        <v>20.402881622314453</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
@@ -885,6 +966,9 @@
       <c r="H28" s="1">
         <v>64.778839111328125</v>
       </c>
+      <c r="I28" s="1">
+        <v>70.648017883300781</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
@@ -911,6 +995,7 @@
       <c r="H29" s="1">
         <v>107.39522552490234</v>
       </c>
+      <c r="I29" s="1"/>
     </row>
     <row r="30">
       <c r="A30" t="s">
@@ -929,6 +1014,7 @@
       <c r="H30" s="1">
         <v>16.132402420043945</v>
       </c>
+      <c r="I30" s="1"/>
     </row>
     <row r="31">
       <c r="A31" t="s">
@@ -949,6 +1035,7 @@
       <c r="H31" s="1">
         <v>43307.26953125</v>
       </c>
+      <c r="I31" s="1"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
@@ -969,6 +1056,9 @@
       <c r="H32" s="1">
         <v>20.875175476074219</v>
       </c>
+      <c r="I32" s="1">
+        <v>20.402881622314453</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
@@ -995,6 +1085,9 @@
       <c r="H33" s="1">
         <v>8.3964433670043945</v>
       </c>
+      <c r="I33" s="1">
+        <v>8.3964433670043945</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
@@ -1021,6 +1114,9 @@
       <c r="H34" s="1">
         <v>3.4082777500152588</v>
       </c>
+      <c r="I34" s="1">
+        <v>3.4136171340942383</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
@@ -1047,6 +1143,9 @@
       <c r="H35" s="1">
         <v>4.0496735572814941</v>
       </c>
+      <c r="I35" s="1">
+        <v>4.0844755172729492</v>
+      </c>
     </row>
   </sheetData>
 </worksheet>

--- a/results/initial_descriptives/combined/sumtable_countymeans.xlsx
+++ b/results/initial_descriptives/combined/sumtable_countymeans.xlsx
@@ -1023,19 +1023,17 @@
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
-      <c r="E31" s="1">
-        <v>22257.21875</v>
-      </c>
-      <c r="F31" s="1">
-        <v>28130.1640625</v>
-      </c>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
       <c r="G31" s="1">
-        <v>41444.46484375</v>
+        <v>9314.0947265625</v>
       </c>
       <c r="H31" s="1">
-        <v>43307.26953125</v>
-      </c>
-      <c r="I31" s="1"/>
+        <v>8957.0625</v>
+      </c>
+      <c r="I31" s="1">
+        <v>8047.3134765625</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="s">

--- a/results/initial_descriptives/combined/sumtable_countymeans.xlsx
+++ b/results/initial_descriptives/combined/sumtable_countymeans.xlsx
@@ -1024,7 +1024,9 @@
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
+      <c r="F31" s="1">
+        <v>6407.0888671875</v>
+      </c>
       <c r="G31" s="1">
         <v>9314.0947265625</v>
       </c>
